--- a/data/pagopa-psp.xlsx
+++ b/data/pagopa-psp.xlsx
@@ -18264,22 +18264,22 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>BANCA CASSA DI RISPARMIO DI SAVIGLIANO S.P.A.</t>
+          <t>BANCA CARIGE S.P.A. - CASSA DI RISPARMIO DI GENOVA E IMPERIA</t>
         </is>
       </c>
       <c r="B292" s="1" t="inlineStr">
         <is>
-          <t>00204500045</t>
+          <t>03285880104</t>
         </is>
       </c>
       <c r="C292" s="1" t="inlineStr">
         <is>
-          <t>06305</t>
+          <t>06175</t>
         </is>
       </c>
       <c r="D292" s="1" t="inlineStr">
         <is>
-          <t>SARCIT2SXXX</t>
+          <t>CRGEITGG</t>
         </is>
       </c>
       <c r="E292" s="1" t="inlineStr">
@@ -18291,56 +18291,59 @@
         <v>1.0</v>
       </c>
       <c r="G292" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H292" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I292" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J292" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K292" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L292" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M292" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>BANCA CESARE PONTI S.P.A.</t>
+          <t>BANCA CASSA DI RISPARMIO DI SAVIGLIANO S.P.A.</t>
         </is>
       </c>
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>07051880966</t>
+          <t>00204500045</t>
         </is>
       </c>
       <c r="C293" s="1" t="inlineStr">
         <is>
-          <t>03084</t>
+          <t>06305</t>
         </is>
       </c>
       <c r="D293" s="1" t="inlineStr">
         <is>
-          <t>BCEPITMM</t>
+          <t>SARCIT2SXXX</t>
         </is>
       </c>
       <c r="E293" s="1" t="inlineStr">
@@ -18352,59 +18355,56 @@
         <v>1.0</v>
       </c>
       <c r="G293" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H293" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I293" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J293" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K293" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L293" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M293" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>BANCA CONSULIA S.P.A.</t>
+          <t>BANCA CESARE PONTI S.P.A.</t>
         </is>
       </c>
       <c r="B294" s="1" t="inlineStr">
         <is>
-          <t>01733820037</t>
+          <t>07051880966</t>
         </is>
       </c>
       <c r="C294" s="1" t="inlineStr">
         <is>
-          <t>03159</t>
+          <t>03084</t>
         </is>
       </c>
       <c r="D294" s="1" t="inlineStr">
         <is>
-          <t>INPIITM1</t>
+          <t>BCEPITMM</t>
         </is>
       </c>
       <c r="E294" s="1" t="inlineStr">
@@ -18453,22 +18453,22 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>BANCA DEL FUCINO - S.P.A.</t>
+          <t>BANCA CONSULIA S.P.A.</t>
         </is>
       </c>
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>00694710583</t>
+          <t>01733820037</t>
         </is>
       </c>
       <c r="C295" s="1" t="inlineStr">
         <is>
-          <t>03124</t>
+          <t>03159</t>
         </is>
       </c>
       <c r="D295" s="1" t="inlineStr">
         <is>
-          <t>BAFUITRR</t>
+          <t>INPIITM1</t>
         </is>
       </c>
       <c r="E295" s="1" t="inlineStr">
@@ -18517,22 +18517,22 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>BANCA DEL MONTE DI LUCCA S.P.A.</t>
+          <t>BANCA DEL FUCINO - S.P.A.</t>
         </is>
       </c>
       <c r="B296" s="1" t="inlineStr">
         <is>
-          <t>01459540462</t>
+          <t>00694710583</t>
         </is>
       </c>
       <c r="C296" s="1" t="inlineStr">
         <is>
-          <t>06915</t>
+          <t>03124</t>
         </is>
       </c>
       <c r="D296" s="1" t="inlineStr">
         <is>
-          <t>BMLUIT3L</t>
+          <t>BAFUITRR</t>
         </is>
       </c>
       <c r="E296" s="1" t="inlineStr">
@@ -18581,22 +18581,22 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>BANCA DEL PIEMONTE S.P.A.</t>
+          <t>BANCA DEL MONTE DI LUCCA S.P.A.</t>
         </is>
       </c>
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>00821100013</t>
+          <t>01459540462</t>
         </is>
       </c>
       <c r="C297" s="1" t="inlineStr">
         <is>
-          <t>03048</t>
+          <t>06915</t>
         </is>
       </c>
       <c r="D297" s="1" t="inlineStr">
         <is>
-          <t>BDCPITTT</t>
+          <t>BMLUIT3L</t>
         </is>
       </c>
       <c r="E297" s="1" t="inlineStr">
@@ -18608,56 +18608,59 @@
         <v>1.0</v>
       </c>
       <c r="G297" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H297" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I297" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J297" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K297" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L297" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M297" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>BANCA DEL SUD S.P.A.</t>
+          <t>BANCA DEL PIEMONTE S.P.A.</t>
         </is>
       </c>
       <c r="B298" s="1" t="inlineStr">
         <is>
-          <t>05479261215</t>
+          <t>00821100013</t>
         </is>
       </c>
       <c r="C298" s="1" t="inlineStr">
         <is>
-          <t>03353</t>
+          <t>03048</t>
         </is>
       </c>
       <c r="D298" s="1" t="inlineStr">
         <is>
-          <t>SUDNITN1XXX</t>
+          <t>BDCPITTT</t>
         </is>
       </c>
       <c r="E298" s="1" t="inlineStr">
@@ -18669,7 +18672,7 @@
         <v>1.0</v>
       </c>
       <c r="G298" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H298" s="1" t="n">
         <v>1.0</v>
@@ -18686,7 +18689,7 @@
       </c>
       <c r="K298" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L298" s="1" t="inlineStr">
@@ -18696,29 +18699,29 @@
       </c>
       <c r="M298" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>BANCA DI CREDITO PELORITANO S.P.A.</t>
+          <t>BANCA DEL SUD S.P.A.</t>
         </is>
       </c>
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>03104290832</t>
+          <t>05479261215</t>
         </is>
       </c>
       <c r="C299" s="1" t="inlineStr">
         <is>
-          <t>03426</t>
+          <t>03353</t>
         </is>
       </c>
       <c r="D299" s="1" t="inlineStr">
         <is>
-          <t>CEEPIT21XXX</t>
+          <t>SUDNITN1XXX</t>
         </is>
       </c>
       <c r="E299" s="1" t="inlineStr">
@@ -18737,52 +18740,49 @@
       </c>
       <c r="I299" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J299" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K299" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L299" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M299" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>BANCA DI IMOLA S.P.A.</t>
+          <t>BANCA DI CREDITO PELORITANO S.P.A.</t>
         </is>
       </c>
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>00499741205</t>
+          <t>03104290832</t>
         </is>
       </c>
       <c r="C300" s="1" t="inlineStr">
         <is>
-          <t>05080</t>
+          <t>03426</t>
         </is>
       </c>
       <c r="D300" s="1" t="inlineStr">
         <is>
-          <t>IMCOIT2A</t>
+          <t>CEEPIT21XXX</t>
         </is>
       </c>
       <c r="E300" s="1" t="inlineStr">
@@ -18794,56 +18794,59 @@
         <v>1.0</v>
       </c>
       <c r="G300" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H300" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I300" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J300" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K300" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L300" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M300" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>BANCA DI SCONTO E CONTI CORRENTI DI SANTA MARIA CAPUA VETERE- S.P.A.</t>
+          <t>BANCA DI IMOLA S.P.A.</t>
         </is>
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>00136290616</t>
+          <t>00499741205</t>
         </is>
       </c>
       <c r="C301" s="1" t="inlineStr">
         <is>
-          <t>03235</t>
+          <t>05080</t>
         </is>
       </c>
       <c r="D301" s="1" t="inlineStr">
         <is>
-          <t>SCCDIT31XXX</t>
+          <t>IMCOIT2A</t>
         </is>
       </c>
       <c r="E301" s="1" t="inlineStr">
@@ -18855,7 +18858,7 @@
         <v>1.0</v>
       </c>
       <c r="G301" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H301" s="1" t="n">
         <v>1.0</v>
@@ -18872,7 +18875,7 @@
       </c>
       <c r="K301" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L301" s="1" t="inlineStr">
@@ -18889,22 +18892,22 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>BANCA EUROMOBILIARE S.P.A.</t>
+          <t>BANCA DI SCONTO E CONTI CORRENTI DI SANTA MARIA CAPUA VETERE- S.P.A.</t>
         </is>
       </c>
       <c r="B302" s="1" t="inlineStr">
         <is>
-          <t>08935810153</t>
+          <t>00136290616</t>
         </is>
       </c>
       <c r="C302" s="1" t="inlineStr">
         <is>
-          <t>03250</t>
+          <t>03235</t>
         </is>
       </c>
       <c r="D302" s="1" t="inlineStr">
         <is>
-          <t>EUBAITM1XXX</t>
+          <t>SCCDIT31XXX</t>
         </is>
       </c>
       <c r="E302" s="1" t="inlineStr">
@@ -18923,52 +18926,49 @@
       </c>
       <c r="I302" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J302" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K302" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L302" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M302" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>BANCA GALILEO S.P.A.</t>
+          <t>BANCA EUROMOBILIARE S.P.A.</t>
         </is>
       </c>
       <c r="B303" s="1" t="inlineStr">
         <is>
-          <t>03639870967</t>
+          <t>08935810153</t>
         </is>
       </c>
       <c r="C303" s="1" t="inlineStr">
         <is>
-          <t>03267</t>
+          <t>03250</t>
         </is>
       </c>
       <c r="D303" s="1" t="inlineStr">
         <is>
-          <t>GAEOITM1XXX</t>
+          <t>EUBAITM1XXX</t>
         </is>
       </c>
       <c r="E303" s="1" t="inlineStr">
@@ -19017,22 +19017,22 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>BANCA GENERALI - SOCIETA' PER AZIONI (IN FORMA ABBREVIATA GENERBANCA)</t>
+          <t>BANCA GALILEO S.P.A.</t>
         </is>
       </c>
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>00833240328</t>
+          <t>03639870967</t>
         </is>
       </c>
       <c r="C304" s="1" t="inlineStr">
         <is>
-          <t>03075</t>
+          <t>03267</t>
         </is>
       </c>
       <c r="D304" s="1" t="inlineStr">
         <is>
-          <t>BGENIT2T</t>
+          <t>GAEOITM1XXX</t>
         </is>
       </c>
       <c r="E304" s="1" t="inlineStr">
@@ -19081,22 +19081,22 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>BANCA IFIGEST - S.P.A.</t>
+          <t>BANCA GENERALI - SOCIETA' PER AZIONI (IN FORMA ABBREVIATA GENERBANCA)</t>
         </is>
       </c>
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>03712110588</t>
+          <t>00833240328</t>
         </is>
       </c>
       <c r="C305" s="1" t="inlineStr">
         <is>
-          <t>03185</t>
+          <t>03075</t>
         </is>
       </c>
       <c r="D305" s="1" t="inlineStr">
         <is>
-          <t>IFIGIT31XXX</t>
+          <t>BGENIT2T</t>
         </is>
       </c>
       <c r="E305" s="1" t="inlineStr">
@@ -19145,22 +19145,22 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.P.A. (OVVERO IFIS BANCA S.P.A. O IN FORMA ABBREVIATA IFIS S.P.A.)</t>
+          <t>BANCA IFIGEST - S.P.A.</t>
         </is>
       </c>
       <c r="B306" s="1" t="inlineStr">
         <is>
-          <t>02505630109</t>
+          <t>03712110588</t>
         </is>
       </c>
       <c r="C306" s="1" t="inlineStr">
         <is>
-          <t>03205</t>
+          <t>03185</t>
         </is>
       </c>
       <c r="D306" s="1" t="inlineStr">
         <is>
-          <t>IFISIT2V</t>
+          <t>IFIGIT31XXX</t>
         </is>
       </c>
       <c r="E306" s="1" t="inlineStr">
@@ -19209,22 +19209,22 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>BANCA INTERMOBILIARE DI INVESTIMENTI E GESTIONI SOCIETA' PER AZIONI</t>
+          <t>BANCA IFIS S.P.A. (OVVERO IFIS BANCA S.P.A. O IN FORMA ABBREVIATA IFIS S.P.A.)</t>
         </is>
       </c>
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>02751170016</t>
+          <t>02505630109</t>
         </is>
       </c>
       <c r="C307" s="1" t="inlineStr">
         <is>
-          <t>03043</t>
+          <t>03205</t>
         </is>
       </c>
       <c r="D307" s="1" t="inlineStr">
         <is>
-          <t>BIMTITTT</t>
+          <t>IFISIT2V</t>
         </is>
       </c>
       <c r="E307" s="1" t="inlineStr">
@@ -19273,22 +19273,22 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>BANCA INTERPROVINCIALE SOCIETA' PER AZIONI (IN SIGLA B.I.P. S.P.A.)</t>
+          <t>BANCA INTERMOBILIARE DI INVESTIMENTI E GESTIONI SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B308" s="1" t="inlineStr">
         <is>
-          <t>03192350365</t>
+          <t>02751170016</t>
         </is>
       </c>
       <c r="C308" s="1" t="inlineStr">
         <is>
-          <t>03395</t>
+          <t>03043</t>
         </is>
       </c>
       <c r="D308" s="1" t="inlineStr">
         <is>
-          <t>ITTPIT2MXXX</t>
+          <t>BIMTITTT</t>
         </is>
       </c>
       <c r="E308" s="1" t="inlineStr">
@@ -19337,22 +19337,22 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>BANCA MACERATA S.P.A. (IN FORMA ABBREVIATA BPRM S.P.A.)</t>
+          <t>BANCA INTERPROVINCIALE SOCIETA' PER AZIONI (IN SIGLA B.I.P. S.P.A.)</t>
         </is>
       </c>
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>01541180434</t>
+          <t>03192350365</t>
         </is>
       </c>
       <c r="C309" s="1" t="inlineStr">
         <is>
-          <t>03317</t>
+          <t>03395</t>
         </is>
       </c>
       <c r="D309" s="1" t="inlineStr">
         <is>
-          <t>PRACIT31</t>
+          <t>ITTPIT2MXXX</t>
         </is>
       </c>
       <c r="E309" s="1" t="inlineStr">
@@ -19401,22 +19401,22 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.P.A.</t>
+          <t>BANCA MACERATA S.P.A. (IN FORMA ABBREVIATA BPRM S.P.A.)</t>
         </is>
       </c>
       <c r="B310" s="1" t="inlineStr">
         <is>
-          <t>02124090164</t>
+          <t>01541180434</t>
         </is>
       </c>
       <c r="C310" s="1" t="inlineStr">
         <is>
-          <t>03062</t>
+          <t>03317</t>
         </is>
       </c>
       <c r="D310" s="1" t="inlineStr">
         <is>
-          <t>MEDBITMM</t>
+          <t>PRACIT31</t>
         </is>
       </c>
       <c r="E310" s="1" t="inlineStr">
@@ -19435,49 +19435,52 @@
       </c>
       <c r="I310" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J310" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K310" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L310" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M310" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA S.P.A.</t>
+          <t>BANCA MEDIOLANUM S.P.A.</t>
         </is>
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>02124090164</t>
         </is>
       </c>
       <c r="C311" s="1" t="inlineStr">
         <is>
-          <t>01030</t>
+          <t>03062</t>
         </is>
       </c>
       <c r="D311" s="1" t="inlineStr">
         <is>
-          <t>PASCITMM</t>
+          <t>MEDBITMM</t>
         </is>
       </c>
       <c r="E311" s="1" t="inlineStr">
@@ -19489,59 +19492,56 @@
         <v>1.0</v>
       </c>
       <c r="G311" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H311" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I311" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J311" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K311" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L311" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M311" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>BANCA NAZIONALE DEL LAVORO S.P.A. (IN FORMA CONTRATTA BNL S.P.A.)</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA S.P.A.</t>
         </is>
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C312" s="1" t="inlineStr">
         <is>
-          <t>01005</t>
+          <t>01030</t>
         </is>
       </c>
       <c r="D312" s="1" t="inlineStr">
         <is>
-          <t>BNLIITR1</t>
+          <t>PASCITMM</t>
         </is>
       </c>
       <c r="E312" s="1" t="inlineStr">
@@ -19553,7 +19553,7 @@
         <v>1.0</v>
       </c>
       <c r="G312" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H312" s="1" t="n">
         <v>1.0</v>
@@ -19590,22 +19590,22 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>BANCA PASSADORE &amp; C. S.P.A.</t>
+          <t>BANCA NAZIONALE DEL LAVORO S.P.A. (IN FORMA CONTRATTA BNL S.P.A.)</t>
         </is>
       </c>
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>00316380104</t>
+          <t>09339391006</t>
         </is>
       </c>
       <c r="C313" s="1" t="inlineStr">
         <is>
-          <t>03332</t>
+          <t>01005</t>
         </is>
       </c>
       <c r="D313" s="1" t="inlineStr">
         <is>
-          <t>PASBITGG</t>
+          <t>BNLIITR1</t>
         </is>
       </c>
       <c r="E313" s="1" t="inlineStr">
@@ -19654,22 +19654,22 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>BANCA PATRIMONI SELLA &amp; C. S.P.A. (IN SIGLA B.P.A. S.P.A.)</t>
+          <t>BANCA PASSADORE &amp; C. S.P.A.</t>
         </is>
       </c>
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>08301100015</t>
+          <t>00316380104</t>
         </is>
       </c>
       <c r="C314" s="1" t="inlineStr">
         <is>
-          <t>03211</t>
+          <t>03332</t>
         </is>
       </c>
       <c r="D314" s="1" t="inlineStr">
         <is>
-          <t>SENVITT1</t>
+          <t>PASBITGG</t>
         </is>
       </c>
       <c r="E314" s="1" t="inlineStr">
@@ -19718,22 +19718,22 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>BANCA PER LO SVILUPPO DELLA COOPERAZIONE DI CREDITO S.P.A. (OPPURE BANCA SVILUPPO S.P.A.)</t>
+          <t>BANCA PATRIMONI SELLA &amp; C. S.P.A. (IN SIGLA B.P.A. S.P.A.)</t>
         </is>
       </c>
       <c r="B315" s="1" t="inlineStr">
         <is>
-          <t>05852011005</t>
+          <t>08301100015</t>
         </is>
       </c>
       <c r="C315" s="1" t="inlineStr">
         <is>
-          <t>03139</t>
+          <t>03211</t>
         </is>
       </c>
       <c r="D315" s="1" t="inlineStr">
         <is>
-          <t>SVIUITRR</t>
+          <t>SENVITT1</t>
         </is>
       </c>
       <c r="E315" s="1" t="inlineStr">
@@ -19782,22 +19782,22 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>BANCA POPOLARE DELL'ALTO ADIGE SOCIETA' PER AZIONI</t>
+          <t>BANCA PER LO SVILUPPO DELLA COOPERAZIONE DI CREDITO S.P.A. (OPPURE BANCA SVILUPPO S.P.A.)</t>
         </is>
       </c>
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>00129730214</t>
+          <t>05852011005</t>
         </is>
       </c>
       <c r="C316" s="1" t="inlineStr">
         <is>
-          <t>05856</t>
+          <t>03139</t>
         </is>
       </c>
       <c r="D316" s="1" t="inlineStr">
         <is>
-          <t>BPAAIT2B</t>
+          <t>SVIUITRR</t>
         </is>
       </c>
       <c r="E316" s="1" t="inlineStr">
@@ -19809,56 +19809,59 @@
         <v>1.0</v>
       </c>
       <c r="G316" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H316" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I316" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J316" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K316" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L316" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M316" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>BANCA POPOLARE DI SPOLETO S.P.A.</t>
+          <t>BANCA POPOLARE DELL'ALTO ADIGE SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>01959720549</t>
+          <t>00129730214</t>
         </is>
       </c>
       <c r="C317" s="1" t="inlineStr">
         <is>
-          <t>05704</t>
+          <t>05856</t>
         </is>
       </c>
       <c r="D317" s="1" t="inlineStr">
         <is>
-          <t>BPSPIT3S</t>
+          <t>BPAAIT2B</t>
         </is>
       </c>
       <c r="E317" s="1" t="inlineStr">
@@ -19870,7 +19873,7 @@
         <v>1.0</v>
       </c>
       <c r="G317" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H317" s="1" t="n">
         <v>1.0</v>
@@ -19887,7 +19890,7 @@
       </c>
       <c r="K317" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L317" s="1" t="inlineStr">
@@ -19897,29 +19900,29 @@
       </c>
       <c r="M317" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>BANCA PROMOS S.P.A.</t>
+          <t>BANCA POPOLARE DI SPOLETO S.P.A.</t>
         </is>
       </c>
       <c r="B318" s="1" t="inlineStr">
         <is>
-          <t>03321720637</t>
+          <t>01959720549</t>
         </is>
       </c>
       <c r="C318" s="1" t="inlineStr">
         <is>
-          <t>03265</t>
+          <t>05704</t>
         </is>
       </c>
       <c r="D318" s="1" t="inlineStr">
         <is>
-          <t>PROSITNNXXX</t>
+          <t>BPSPIT3S</t>
         </is>
       </c>
       <c r="E318" s="1" t="inlineStr">
@@ -19938,52 +19941,49 @@
       </c>
       <c r="I318" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J318" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K318" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L318" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M318" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>BANCA PROSSIMA S.P.A. (IN FORMA ABBREVIATA PROSSIMA S.P.A.)</t>
+          <t>BANCA PROMOS S.P.A.</t>
         </is>
       </c>
       <c r="B319" s="1" t="inlineStr">
         <is>
-          <t>05836420967</t>
+          <t>03321720637</t>
         </is>
       </c>
       <c r="C319" s="1" t="inlineStr">
         <is>
-          <t>03359</t>
+          <t>03265</t>
         </is>
       </c>
       <c r="D319" s="1" t="inlineStr">
         <is>
-          <t>BCITITMX</t>
+          <t>PROSITNNXXX</t>
         </is>
       </c>
       <c r="E319" s="1" t="inlineStr">
@@ -19995,56 +19995,59 @@
         <v>1.0</v>
       </c>
       <c r="G319" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H319" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I319" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J319" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K319" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L319" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M319" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>BANCA REALE S.P.A.</t>
+          <t>BANCA PROSSIMA S.P.A. (IN FORMA ABBREVIATA PROSSIMA S.P.A.)</t>
         </is>
       </c>
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>07760860010</t>
+          <t>05836420967</t>
         </is>
       </c>
       <c r="C320" s="1" t="inlineStr">
         <is>
-          <t>03138</t>
+          <t>03359</t>
         </is>
       </c>
       <c r="D320" s="1" t="inlineStr">
         <is>
-          <t>BRTOITTT</t>
+          <t>BCITITMX</t>
         </is>
       </c>
       <c r="E320" s="1" t="inlineStr">
@@ -20056,59 +20059,56 @@
         <v>1.0</v>
       </c>
       <c r="G320" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H320" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I320" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="J320" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K320" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L320" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M320" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>BANCA REGIONALE DI SVILUPPO S.P.A.</t>
+          <t>BANCA REALE S.P.A.</t>
         </is>
       </c>
       <c r="B321" s="1" t="inlineStr">
         <is>
-          <t>07634270636</t>
+          <t>07760860010</t>
         </is>
       </c>
       <c r="C321" s="1" t="inlineStr">
         <is>
-          <t>05023</t>
+          <t>03138</t>
         </is>
       </c>
       <c r="D321" s="1" t="inlineStr">
         <is>
-          <t>BSVIITNN</t>
+          <t>BRTOITTT</t>
         </is>
       </c>
       <c r="E321" s="1" t="inlineStr">
@@ -20157,22 +20157,22 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>BANCA SANTA GIULIA S.P.A.</t>
+          <t>BANCA REGIONALE DI SVILUPPO S.P.A.</t>
         </is>
       </c>
       <c r="B322" s="1" t="inlineStr">
         <is>
-          <t>01994680179</t>
+          <t>07634270636</t>
         </is>
       </c>
       <c r="C322" s="1" t="inlineStr">
         <is>
-          <t>03367</t>
+          <t>05023</t>
         </is>
       </c>
       <c r="D322" s="1" t="inlineStr">
         <is>
-          <t>SGIUIT21XXX</t>
+          <t>BSVIITNN</t>
         </is>
       </c>
       <c r="E322" s="1" t="inlineStr">
@@ -20221,22 +20221,22 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>BANCA SELLA - S.P.A.</t>
+          <t>BANCA SANTA GIULIA S.P.A.</t>
         </is>
       </c>
       <c r="B323" s="1" t="inlineStr">
         <is>
-          <t>02224410023</t>
+          <t>01994680179</t>
         </is>
       </c>
       <c r="C323" s="1" t="inlineStr">
         <is>
-          <t>03268</t>
+          <t>03367</t>
         </is>
       </c>
       <c r="D323" s="1" t="inlineStr">
         <is>
-          <t>SELBIT2B</t>
+          <t>SGIUIT21XXX</t>
         </is>
       </c>
       <c r="E323" s="1" t="inlineStr">
@@ -20285,22 +20285,22 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.P.A.</t>
+          <t>BANCA SELLA - S.P.A.</t>
         </is>
       </c>
       <c r="B324" s="1" t="inlineStr">
         <is>
-          <t>12870770158</t>
+          <t>02224410023</t>
         </is>
       </c>
       <c r="C324" s="1" t="inlineStr">
         <is>
-          <t>03158</t>
+          <t>03268</t>
         </is>
       </c>
       <c r="D324" s="1" t="inlineStr">
         <is>
-          <t>BSISITMMXXX</t>
+          <t>SELBIT2B</t>
         </is>
       </c>
       <c r="E324" s="1" t="inlineStr">
@@ -20349,22 +20349,22 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>BANCA STABIESE - S.P.A.</t>
+          <t>BANCA SISTEMA S.P.A.</t>
         </is>
       </c>
       <c r="B325" s="1" t="inlineStr">
         <is>
-          <t>00275490639</t>
+          <t>12870770158</t>
         </is>
       </c>
       <c r="C325" s="1" t="inlineStr">
         <is>
-          <t>03388</t>
+          <t>03158</t>
         </is>
       </c>
       <c r="D325" s="1" t="inlineStr">
         <is>
-          <t>STAIIT31XXX</t>
+          <t>BSISITMMXXX</t>
         </is>
       </c>
       <c r="E325" s="1" t="inlineStr">
@@ -20413,22 +20413,22 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>BANCA SVILUPPO TUSCIA S.P.A.</t>
+          <t>BANCA STABIESE - S.P.A.</t>
         </is>
       </c>
       <c r="B326" s="1" t="inlineStr">
         <is>
-          <t>02078470560</t>
+          <t>00275490639</t>
         </is>
       </c>
       <c r="C326" s="1" t="inlineStr">
         <is>
-          <t>03441</t>
+          <t>03388</t>
         </is>
       </c>
       <c r="D326" s="1" t="inlineStr">
         <is>
-          <t>SVTUIT21XXX</t>
+          <t>STAIIT31XXX</t>
         </is>
       </c>
       <c r="E326" s="1" t="inlineStr">
@@ -20477,22 +20477,22 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>BANCA UBAE S.P.A.</t>
+          <t>BANCA SVILUPPO TUSCIA S.P.A.</t>
         </is>
       </c>
       <c r="B327" s="1" t="inlineStr">
         <is>
-          <t>00716130588</t>
+          <t>02078470560</t>
         </is>
       </c>
       <c r="C327" s="1" t="inlineStr">
         <is>
-          <t>03598</t>
+          <t>03441</t>
         </is>
       </c>
       <c r="D327" s="1" t="inlineStr">
         <is>
-          <t>UBAIITRR</t>
+          <t>SVTUIT21XXX</t>
         </is>
       </c>
       <c r="E327" s="1" t="inlineStr">
@@ -20511,49 +20511,52 @@
       </c>
       <c r="I327" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J327" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K327" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L327" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M327" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Banca Widiba S.P.A.</t>
+          <t>BANCA UBAE S.P.A.</t>
         </is>
       </c>
       <c r="B328" s="1" t="inlineStr">
         <is>
-          <t>08447330963</t>
+          <t>00716130588</t>
         </is>
       </c>
       <c r="C328" s="1" t="inlineStr">
         <is>
-          <t>03442</t>
+          <t>03598</t>
         </is>
       </c>
       <c r="D328" s="1" t="inlineStr">
         <is>
-          <t>WIDIITMM</t>
+          <t>UBAIITRR</t>
         </is>
       </c>
       <c r="E328" s="1" t="inlineStr">
@@ -20572,52 +20575,49 @@
       </c>
       <c r="I328" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J328" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K328" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L328" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M328" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>BANCO BPM SOCIETA' PER AZIONI</t>
+          <t>Banca Widiba S.P.A.</t>
         </is>
       </c>
       <c r="B329" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>08447330963</t>
         </is>
       </c>
       <c r="C329" s="1" t="inlineStr">
         <is>
-          <t>05034</t>
+          <t>03442</t>
         </is>
       </c>
       <c r="D329" s="1" t="inlineStr">
         <is>
-          <t>BAPPIT22</t>
+          <t>WIDIITMM</t>
         </is>
       </c>
       <c r="E329" s="1" t="inlineStr">
@@ -20636,49 +20636,52 @@
       </c>
       <c r="I329" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J329" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K329" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L329" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M329" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>BANCO DELLE TRE VENEZIE S.P.A. (CON ACRONIMO B.T.V. SPA)</t>
+          <t>BANCO BPM SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>04147080289</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C330" s="1" t="inlineStr">
         <is>
-          <t>03365</t>
+          <t>05034</t>
         </is>
       </c>
       <c r="D330" s="1" t="inlineStr">
         <is>
-          <t>TRVEIT2PXXX</t>
+          <t>BAPPIT22</t>
         </is>
       </c>
       <c r="E330" s="1" t="inlineStr">
@@ -20697,52 +20700,49 @@
       </c>
       <c r="I330" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J330" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K330" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L330" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="M330" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>BANCO DI CREDITO P.AZZOAGLIO - S.P.A.</t>
+          <t>BANCO DELLE TRE VENEZIE S.P.A. (CON ACRONIMO B.T.V. SPA)</t>
         </is>
       </c>
       <c r="B331" s="1" t="inlineStr">
         <is>
-          <t>00166050047</t>
+          <t>04147080289</t>
         </is>
       </c>
       <c r="C331" s="1" t="inlineStr">
         <is>
-          <t>03425</t>
+          <t>03365</t>
         </is>
       </c>
       <c r="D331" s="1" t="inlineStr">
         <is>
-          <t>AZZBITT1XXX</t>
+          <t>TRVEIT2PXXX</t>
         </is>
       </c>
       <c r="E331" s="1" t="inlineStr">
@@ -20754,7 +20754,7 @@
         <v>1.0</v>
       </c>
       <c r="G331" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H331" s="1" t="n">
         <v>1.0</v>
@@ -20791,22 +20791,22 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA - SOCIETA' PER AZIONI</t>
+          <t>BANCO DI CREDITO P.AZZOAGLIO - S.P.A.</t>
         </is>
       </c>
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>01181770155</t>
+          <t>00166050047</t>
         </is>
       </c>
       <c r="C332" s="1" t="inlineStr">
         <is>
-          <t>03440</t>
+          <t>03425</t>
         </is>
       </c>
       <c r="D332" s="1" t="inlineStr">
         <is>
-          <t>BDBDIT22XXX</t>
+          <t>AZZBITT1XXX</t>
         </is>
       </c>
       <c r="E332" s="1" t="inlineStr">
@@ -20825,49 +20825,52 @@
       </c>
       <c r="I332" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J332" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K332" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L332" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M332" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>BANCO DI LUCCA E DEL TIRRENO S.P.A. (IN FORMA ABBREVIATA BANCO DI LUCCA S.P.A.)</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA - SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B333" s="1" t="inlineStr">
         <is>
-          <t>01880620461</t>
+          <t>01181770155</t>
         </is>
       </c>
       <c r="C333" s="1" t="inlineStr">
         <is>
-          <t>03242</t>
+          <t>03440</t>
         </is>
       </c>
       <c r="D333" s="1" t="inlineStr">
         <is>
-          <t>BLUCIT31</t>
+          <t>BDBDIT22XXX</t>
         </is>
       </c>
       <c r="E333" s="1" t="inlineStr">
@@ -20879,14 +20882,14 @@
         <v>1.0</v>
       </c>
       <c r="G333" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H333" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I333" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J333" s="1" t="inlineStr">
@@ -20906,29 +20909,29 @@
       </c>
       <c r="M333" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>BANCO DI SARDEGNA S.P.A.</t>
+          <t>BANCO DI LUCCA E DEL TIRRENO S.P.A. (IN FORMA ABBREVIATA BANCO DI LUCCA S.P.A.)</t>
         </is>
       </c>
       <c r="B334" s="1" t="inlineStr">
         <is>
-          <t>01564560900</t>
+          <t>01880620461</t>
         </is>
       </c>
       <c r="C334" s="1" t="inlineStr">
         <is>
-          <t>01015</t>
+          <t>03242</t>
         </is>
       </c>
       <c r="D334" s="1" t="inlineStr">
         <is>
-          <t>SARDIT31</t>
+          <t>BLUCIT31</t>
         </is>
       </c>
       <c r="E334" s="1" t="inlineStr">
@@ -20947,17 +20950,17 @@
       </c>
       <c r="I334" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J334" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K334" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L334" s="1" t="inlineStr">
@@ -20974,22 +20977,22 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>BPER BANCA S.P.A.</t>
+          <t>BANCO DI SARDEGNA S.P.A.</t>
         </is>
       </c>
       <c r="B335" s="1" t="inlineStr">
         <is>
-          <t>01153230360</t>
+          <t>01564560900</t>
         </is>
       </c>
       <c r="C335" s="1" t="inlineStr">
         <is>
-          <t>05387</t>
+          <t>01015</t>
         </is>
       </c>
       <c r="D335" s="1" t="inlineStr">
         <is>
-          <t>BPMOIT22</t>
+          <t>SARDIT31</t>
         </is>
       </c>
       <c r="E335" s="1" t="inlineStr">
@@ -21008,52 +21011,49 @@
       </c>
       <c r="I335" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J335" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="K335" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="L335" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M335" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>CASSA CENTRALE BANCA - CREDITO COOPERATIVO ITALIANOSOCIETA' PER AZIONI (IN SIGLA CASSA CENTRALE BANCA)</t>
+          <t>BPER BANCA S.P.A.</t>
         </is>
       </c>
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>00232480228</t>
+          <t>01153230360</t>
         </is>
       </c>
       <c r="C336" s="1" t="inlineStr">
         <is>
-          <t>03599</t>
+          <t>05387</t>
         </is>
       </c>
       <c r="D336" s="1" t="inlineStr">
         <is>
-          <t>CCRTIT2TXXX</t>
+          <t>BPMOIT22</t>
         </is>
       </c>
       <c r="E336" s="1" t="inlineStr">
@@ -21065,56 +21065,59 @@
         <v>1.0</v>
       </c>
       <c r="G336" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H336" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I336" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J336" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K336" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L336" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M336" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>CASSA CENTRALE RAIFFEISEN DELL'ALTO ADIGE - RAIFFEISEN-LANDESBANK SUEDTIROL A.G.</t>
+          <t>CASSA CENTRALE BANCA - CREDITO COOPERATIVO ITALIANOSOCIETA' PER AZIONI (IN SIGLA CASSA CENTRALE BANCA)</t>
         </is>
       </c>
       <c r="B337" s="1" t="inlineStr">
         <is>
-          <t>00194450219</t>
+          <t>00232480228</t>
         </is>
       </c>
       <c r="C337" s="1" t="inlineStr">
         <is>
-          <t>03493</t>
+          <t>03599</t>
         </is>
       </c>
       <c r="D337" s="1" t="inlineStr">
         <is>
-          <t>RZSBIT2B</t>
+          <t>CCRTIT2TXXX</t>
         </is>
       </c>
       <c r="E337" s="1" t="inlineStr">
@@ -21160,22 +21163,22 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI ASTI S.P.A. (IN FORMA ABBREVIATA BANCA C.R. ASTI S.P.A.)</t>
+          <t>CASSA CENTRALE RAIFFEISEN DELL'ALTO ADIGE - RAIFFEISEN-LANDESBANK SUEDTIROL A.G.</t>
         </is>
       </c>
       <c r="B338" s="1" t="inlineStr">
         <is>
-          <t>00060550050</t>
+          <t>00194450219</t>
         </is>
       </c>
       <c r="C338" s="1" t="inlineStr">
         <is>
-          <t>06085</t>
+          <t>03493</t>
         </is>
       </c>
       <c r="D338" s="1" t="inlineStr">
         <is>
-          <t>CASRIT22</t>
+          <t>RZSBIT2B</t>
         </is>
       </c>
       <c r="E338" s="1" t="inlineStr">
@@ -21187,14 +21190,14 @@
         <v>1.0</v>
       </c>
       <c r="G338" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H338" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I338" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="J338" s="1" t="inlineStr">
@@ -21204,7 +21207,7 @@
       </c>
       <c r="K338" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L338" s="1" t="inlineStr">
@@ -21221,22 +21224,22 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI BIELLA E VERCELLI - BIVERBANCA SPA</t>
+          <t>CASSA DI RISPARMIO DI ASTI S.P.A. (IN FORMA ABBREVIATA BANCA C.R. ASTI S.P.A.)</t>
         </is>
       </c>
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>01807130024</t>
+          <t>00060550050</t>
         </is>
       </c>
       <c r="C339" s="1" t="inlineStr">
         <is>
-          <t>06090</t>
+          <t>06085</t>
         </is>
       </c>
       <c r="D339" s="1" t="inlineStr">
         <is>
-          <t>CRBIIT2B</t>
+          <t>CASRIT22</t>
         </is>
       </c>
       <c r="E339" s="1" t="inlineStr">
@@ -21282,22 +21285,22 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI BOLZANO S.P.A. - SUDTIROLER SPARKASSE AG</t>
+          <t>CASSA DI RISPARMIO DI BIELLA E VERCELLI - BIVERBANCA SPA</t>
         </is>
       </c>
       <c r="B340" s="1" t="inlineStr">
         <is>
-          <t>00152980215</t>
+          <t>01807130024</t>
         </is>
       </c>
       <c r="C340" s="1" t="inlineStr">
         <is>
-          <t>06045</t>
+          <t>06090</t>
         </is>
       </c>
       <c r="D340" s="1" t="inlineStr">
         <is>
-          <t>CRBZIT2B</t>
+          <t>CRBIIT2B</t>
         </is>
       </c>
       <c r="E340" s="1" t="inlineStr">
@@ -21309,7 +21312,7 @@
         <v>1.0</v>
       </c>
       <c r="G340" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H340" s="1" t="n">
         <v>1.0</v>
@@ -21326,7 +21329,7 @@
       </c>
       <c r="K340" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L340" s="1" t="inlineStr">
@@ -21343,22 +21346,22 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI BRA S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI BOLZANO S.P.A. - SUDTIROLER SPARKASSE AG</t>
         </is>
       </c>
       <c r="B341" s="1" t="inlineStr">
         <is>
-          <t>00200060044</t>
+          <t>00152980215</t>
         </is>
       </c>
       <c r="C341" s="1" t="inlineStr">
         <is>
-          <t>06095</t>
+          <t>06045</t>
         </is>
       </c>
       <c r="D341" s="1" t="inlineStr">
         <is>
-          <t>CRBRIT22</t>
+          <t>CRBZIT2B</t>
         </is>
       </c>
       <c r="E341" s="1" t="inlineStr">
@@ -21370,59 +21373,56 @@
         <v>1.0</v>
       </c>
       <c r="G341" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H341" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I341" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J341" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K341" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L341" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M341" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI CENTO S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI BRA S.P.A.</t>
         </is>
       </c>
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>01208920387</t>
+          <t>00200060044</t>
         </is>
       </c>
       <c r="C342" s="1" t="inlineStr">
         <is>
-          <t>06115</t>
+          <t>06095</t>
         </is>
       </c>
       <c r="D342" s="1" t="inlineStr">
         <is>
-          <t>CRCEIT2C</t>
+          <t>CRBRIT22</t>
         </is>
       </c>
       <c r="E342" s="1" t="inlineStr">
@@ -21471,22 +21471,22 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI FERMO S.P.A. (IN FORMA ABBREVIATA CARIFERMO S.P.A.)</t>
+          <t>CASSA DI RISPARMIO DI CENTO S.P.A.</t>
         </is>
       </c>
       <c r="B343" s="1" t="inlineStr">
         <is>
-          <t>00112540448</t>
+          <t>01208920387</t>
         </is>
       </c>
       <c r="C343" s="1" t="inlineStr">
         <is>
-          <t>06150</t>
+          <t>06115</t>
         </is>
       </c>
       <c r="D343" s="1" t="inlineStr">
         <is>
-          <t>CRFEIT3F</t>
+          <t>CRCEIT2C</t>
         </is>
       </c>
       <c r="E343" s="1" t="inlineStr">
@@ -21498,56 +21498,59 @@
         <v>1.0</v>
       </c>
       <c r="G343" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H343" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I343" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J343" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K343" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L343" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M343" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI FOSSANO S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI FERMO S.P.A. (IN FORMA ABBREVIATA CARIFERMO S.P.A.)</t>
         </is>
       </c>
       <c r="B344" s="1" t="inlineStr">
         <is>
-          <t>00166910042</t>
+          <t>00112540448</t>
         </is>
       </c>
       <c r="C344" s="1" t="inlineStr">
         <is>
-          <t>06170</t>
+          <t>06150</t>
         </is>
       </c>
       <c r="D344" s="1" t="inlineStr">
         <is>
-          <t>CRIFIT2F</t>
+          <t>CRFEIT3F</t>
         </is>
       </c>
       <c r="E344" s="1" t="inlineStr">
@@ -21559,59 +21562,56 @@
         <v>1.0</v>
       </c>
       <c r="G344" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H344" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I344" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J344" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K344" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L344" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M344" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI ORVIETO S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI FOSSANO S.P.A.</t>
         </is>
       </c>
       <c r="B345" s="1" t="inlineStr">
         <is>
-          <t>00063960553</t>
+          <t>00166910042</t>
         </is>
       </c>
       <c r="C345" s="1" t="inlineStr">
         <is>
-          <t>06220</t>
+          <t>06170</t>
         </is>
       </c>
       <c r="D345" s="1" t="inlineStr">
         <is>
-          <t>BPBAITR1XXX</t>
+          <t>CRIFIT2F</t>
         </is>
       </c>
       <c r="E345" s="1" t="inlineStr">
@@ -21630,49 +21630,52 @@
       </c>
       <c r="I345" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J345" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K345" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L345" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M345" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI SALUZZO S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI ORVIETO S.P.A.</t>
         </is>
       </c>
       <c r="B346" s="1" t="inlineStr">
         <is>
-          <t>00243830049</t>
+          <t>00063960553</t>
         </is>
       </c>
       <c r="C346" s="1" t="inlineStr">
         <is>
-          <t>06295</t>
+          <t>06220</t>
         </is>
       </c>
       <c r="D346" s="1" t="inlineStr">
         <is>
-          <t>CRSAIT22</t>
+          <t>BPBAITR1XXX</t>
         </is>
       </c>
       <c r="E346" s="1" t="inlineStr">
@@ -21701,7 +21704,7 @@
       </c>
       <c r="K346" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L346" s="1" t="inlineStr">
@@ -21718,22 +21721,22 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>CASSA DI RISPARMIO DI VOLTERRA S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI SALUZZO S.P.A.</t>
         </is>
       </c>
       <c r="B347" s="1" t="inlineStr">
         <is>
-          <t>01225610508</t>
+          <t>00243830049</t>
         </is>
       </c>
       <c r="C347" s="1" t="inlineStr">
         <is>
-          <t>06370</t>
+          <t>06295</t>
         </is>
       </c>
       <c r="D347" s="1" t="inlineStr">
         <is>
-          <t>CRVOIT3V</t>
+          <t>CRSAIT22</t>
         </is>
       </c>
       <c r="E347" s="1" t="inlineStr">
@@ -21779,22 +21782,22 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>CASSA LOMBARDA - S.P.A.</t>
+          <t>CASSA DI RISPARMIO DI VOLTERRA S.P.A.</t>
         </is>
       </c>
       <c r="B348" s="1" t="inlineStr">
         <is>
-          <t>00714590155</t>
+          <t>01225610508</t>
         </is>
       </c>
       <c r="C348" s="1" t="inlineStr">
         <is>
-          <t>03488</t>
+          <t>06370</t>
         </is>
       </c>
       <c r="D348" s="1" t="inlineStr">
         <is>
-          <t>LOMCITMM</t>
+          <t>CRVOIT3V</t>
         </is>
       </c>
       <c r="E348" s="1" t="inlineStr">
@@ -21813,52 +21816,49 @@
       </c>
       <c r="I348" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J348" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K348" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L348" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M348" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>CHEBANCA! S.P.A.</t>
+          <t>CASSA LOMBARDA - S.P.A.</t>
         </is>
       </c>
       <c r="B349" s="1" t="inlineStr">
         <is>
-          <t>10359360152</t>
+          <t>00714590155</t>
         </is>
       </c>
       <c r="C349" s="1" t="inlineStr">
         <is>
-          <t>03058</t>
+          <t>03488</t>
         </is>
       </c>
       <c r="D349" s="1" t="inlineStr">
         <is>
-          <t>MICSITM1XXX</t>
+          <t>LOMCITMM</t>
         </is>
       </c>
       <c r="E349" s="1" t="inlineStr">
@@ -21907,22 +21907,22 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>CRÉDIT AGRICOLE CARIPARMA S.P.A.</t>
+          <t>CHEBANCA! S.P.A.</t>
         </is>
       </c>
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>02113530345</t>
+          <t>10359360152</t>
         </is>
       </c>
       <c r="C350" s="1" t="inlineStr">
         <is>
-          <t>06230</t>
+          <t>03058</t>
         </is>
       </c>
       <c r="D350" s="1" t="inlineStr">
         <is>
-          <t>CRPPIT2PXXX</t>
+          <t>MICSITM1XXX</t>
         </is>
       </c>
       <c r="E350" s="1" t="inlineStr">
@@ -21934,56 +21934,59 @@
         <v>1.0</v>
       </c>
       <c r="G350" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H350" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I350" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J350" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K350" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L350" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M350" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>CREDIT AGRICOLE CARISPEZIA S.P.A.</t>
+          <t>CRÉDIT AGRICOLE CARIPARMA S.P.A.</t>
         </is>
       </c>
       <c r="B351" s="1" t="inlineStr">
         <is>
-          <t>00057340119</t>
+          <t>02113530345</t>
         </is>
       </c>
       <c r="C351" s="1" t="inlineStr">
         <is>
-          <t>06030</t>
+          <t>06230</t>
         </is>
       </c>
       <c r="D351" s="1" t="inlineStr">
         <is>
-          <t>CRFIIT2SXXX</t>
+          <t>CRPPIT2PXXX</t>
         </is>
       </c>
       <c r="E351" s="1" t="inlineStr">
@@ -22029,22 +22032,22 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>CREDIT AGRICOLE FRIULADRIA S.P.A.</t>
+          <t>CREDIT AGRICOLE CARISPEZIA S.P.A.</t>
         </is>
       </c>
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>01369030935</t>
+          <t>00057340119</t>
         </is>
       </c>
       <c r="C352" s="1" t="inlineStr">
         <is>
-          <t>05336</t>
+          <t>06030</t>
         </is>
       </c>
       <c r="D352" s="1" t="inlineStr">
         <is>
-          <t>BPPNIT2PXXX</t>
+          <t>CRFIIT2SXXX</t>
         </is>
       </c>
       <c r="E352" s="1" t="inlineStr">
@@ -22090,22 +22093,22 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>CREDITO DI ROMAGNA S.P.A.</t>
+          <t>CREDIT AGRICOLE FRIULADRIA S.P.A.</t>
         </is>
       </c>
       <c r="B353" s="1" t="inlineStr">
         <is>
-          <t>03374640401</t>
+          <t>01369030935</t>
         </is>
       </c>
       <c r="C353" s="1" t="inlineStr">
         <is>
-          <t>03273</t>
+          <t>05336</t>
         </is>
       </c>
       <c r="D353" s="1" t="inlineStr">
         <is>
-          <t>CRDRIT2FXXX</t>
+          <t>BPPNIT2PXXX</t>
         </is>
       </c>
       <c r="E353" s="1" t="inlineStr">
@@ -22124,52 +22127,49 @@
       </c>
       <c r="I353" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J353" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K353" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L353" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M353" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.P.A.</t>
+          <t>CREDITO DI ROMAGNA S.P.A.</t>
         </is>
       </c>
       <c r="B354" s="1" t="inlineStr">
         <is>
-          <t>01806740153</t>
+          <t>03374640401</t>
         </is>
       </c>
       <c r="C354" s="1" t="inlineStr">
         <is>
-          <t>03032</t>
+          <t>03273</t>
         </is>
       </c>
       <c r="D354" s="1" t="inlineStr">
         <is>
-          <t>BACRIT22</t>
+          <t>CRDRIT2FXXX</t>
         </is>
       </c>
       <c r="E354" s="1" t="inlineStr">
@@ -22181,7 +22181,7 @@
         <v>1.0</v>
       </c>
       <c r="G354" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H354" s="1" t="n">
         <v>1.0</v>
@@ -22218,22 +22218,22 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>CREDITO LOMBARDO VENETO S.P.A.</t>
+          <t>CREDITO EMILIANO S.P.A.</t>
         </is>
       </c>
       <c r="B355" s="1" t="inlineStr">
         <is>
-          <t>03515830168</t>
+          <t>01806740153</t>
         </is>
       </c>
       <c r="C355" s="1" t="inlineStr">
         <is>
-          <t>03430</t>
+          <t>03032</t>
         </is>
       </c>
       <c r="D355" s="1" t="inlineStr">
         <is>
-          <t>CRLVIT21XXX</t>
+          <t>BACRIT22</t>
         </is>
       </c>
       <c r="E355" s="1" t="inlineStr">
@@ -22245,7 +22245,7 @@
         <v>1.0</v>
       </c>
       <c r="G355" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H355" s="1" t="n">
         <v>1.0</v>
@@ -22282,22 +22282,22 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>DEUTSCHE BANK S.P.A.</t>
+          <t>CREDITO LOMBARDO VENETO S.P.A.</t>
         </is>
       </c>
       <c r="B356" s="1" t="inlineStr">
         <is>
-          <t>01340740156</t>
+          <t>03515830168</t>
         </is>
       </c>
       <c r="C356" s="1" t="inlineStr">
         <is>
-          <t>03104</t>
+          <t>03430</t>
         </is>
       </c>
       <c r="D356" s="1" t="inlineStr">
         <is>
-          <t>DEUTITMM</t>
+          <t>CRLVIT21XXX</t>
         </is>
       </c>
       <c r="E356" s="1" t="inlineStr">
@@ -22309,7 +22309,7 @@
         <v>1.0</v>
       </c>
       <c r="G356" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H356" s="1" t="n">
         <v>1.0</v>
@@ -22346,22 +22346,22 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>DOBANK SPA</t>
+          <t>DEUTSCHE BANK S.P.A.</t>
         </is>
       </c>
       <c r="B357" s="1" t="inlineStr">
         <is>
-          <t>02659940239</t>
+          <t>01340740156</t>
         </is>
       </c>
       <c r="C357" s="1" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>03104</t>
         </is>
       </c>
       <c r="D357" s="1" t="inlineStr">
         <is>
-          <t>UNGCIT21</t>
+          <t>DEUTITMM</t>
         </is>
       </c>
       <c r="E357" s="1" t="inlineStr">
@@ -22373,10 +22373,10 @@
         <v>1.0</v>
       </c>
       <c r="G357" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H357" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I357" s="1" t="inlineStr">
         <is>
@@ -22410,22 +22410,22 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>FIDEURAM - INTESA SANPAOLO PRIVATE BANKING S.P.A.</t>
+          <t>DOBANK SPA</t>
         </is>
       </c>
       <c r="B358" s="1" t="inlineStr">
         <is>
-          <t>00714540150</t>
+          <t>02659940239</t>
         </is>
       </c>
       <c r="C358" s="1" t="inlineStr">
         <is>
-          <t>03296</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="D358" s="1" t="inlineStr">
         <is>
-          <t>FIBKITMM</t>
+          <t>UNGCIT21</t>
         </is>
       </c>
       <c r="E358" s="1" t="inlineStr">
@@ -22437,56 +22437,59 @@
         <v>1.0</v>
       </c>
       <c r="G358" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H358" s="1" t="n">
         <v>0.0</v>
       </c>
-      <c r="H358" s="1" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I358" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J358" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K358" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L358" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M358" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>FINECOBANK BANCA FINECO S.P.A.</t>
+          <t>FIDEURAM - INTESA SANPAOLO PRIVATE BANKING S.P.A.</t>
         </is>
       </c>
       <c r="B359" s="1" t="inlineStr">
         <is>
-          <t>01392970404</t>
+          <t>00714540150</t>
         </is>
       </c>
       <c r="C359" s="1" t="inlineStr">
         <is>
-          <t>03015</t>
+          <t>03296</t>
         </is>
       </c>
       <c r="D359" s="1" t="inlineStr">
         <is>
-          <t>FEBIITM1XXX</t>
+          <t>FIBKITMM</t>
         </is>
       </c>
       <c r="E359" s="1" t="inlineStr">
@@ -22505,52 +22508,49 @@
       </c>
       <c r="I359" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="J359" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K359" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L359" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M359" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>IBL ISTITUTO BANCARIO DEL LAVORO S.P.A. (IN FORMA ABBREVIATA IBL BANCA)</t>
+          <t>FINECOBANK BANCA FINECO S.P.A.</t>
         </is>
       </c>
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>00452550585</t>
+          <t>01392970404</t>
         </is>
       </c>
       <c r="C360" s="1" t="inlineStr">
         <is>
-          <t>03263</t>
+          <t>03015</t>
         </is>
       </c>
       <c r="D360" s="1" t="inlineStr">
         <is>
-          <t>IBLBITRRXXX</t>
+          <t>FEBIITM1XXX</t>
         </is>
       </c>
       <c r="E360" s="1" t="inlineStr">
@@ -22599,22 +22599,22 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>IGEA BANCA S.P.A.</t>
+          <t>IBL ISTITUTO BANCARIO DEL LAVORO S.P.A. (IN FORMA ABBREVIATA IBL BANCA)</t>
         </is>
       </c>
       <c r="B361" s="1" t="inlineStr">
         <is>
-          <t>04256050875</t>
+          <t>00452550585</t>
         </is>
       </c>
       <c r="C361" s="1" t="inlineStr">
         <is>
-          <t>05029</t>
+          <t>03263</t>
         </is>
       </c>
       <c r="D361" s="1" t="inlineStr">
         <is>
-          <t>PDSCIT31XXX</t>
+          <t>IBLBITRRXXX</t>
         </is>
       </c>
       <c r="E361" s="1" t="inlineStr">
@@ -22663,22 +22663,22 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>IMPREBANCA S.P.A.</t>
+          <t>IGEA BANCA S.P.A.</t>
         </is>
       </c>
       <c r="B362" s="1" t="inlineStr">
         <is>
-          <t>09994611003</t>
+          <t>04256050875</t>
         </is>
       </c>
       <c r="C362" s="1" t="inlineStr">
         <is>
-          <t>03403</t>
+          <t>05029</t>
         </is>
       </c>
       <c r="D362" s="1" t="inlineStr">
         <is>
-          <t>IMPAITRR</t>
+          <t>PDSCIT31XXX</t>
         </is>
       </c>
       <c r="E362" s="1" t="inlineStr">
@@ -22690,7 +22690,7 @@
         <v>1.0</v>
       </c>
       <c r="G362" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H362" s="1" t="n">
         <v>1.0</v>
@@ -22727,22 +22727,22 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>INTESA SANPAOLO PRIVATE BANKING S.P.A.</t>
+          <t>IMPREBANCA S.P.A.</t>
         </is>
       </c>
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>00460870348</t>
+          <t>09994611003</t>
         </is>
       </c>
       <c r="C363" s="1" t="inlineStr">
         <is>
-          <t>03239</t>
+          <t>03403</t>
         </is>
       </c>
       <c r="D363" s="1" t="inlineStr">
         <is>
-          <t>xxxxxxxx</t>
+          <t>IMPAITRR</t>
         </is>
       </c>
       <c r="E363" s="1" t="inlineStr">
@@ -22761,49 +22761,52 @@
       </c>
       <c r="I363" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J363" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K363" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L363" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M363" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>INTESA SANPAOLO S.P.A.</t>
+          <t>INTESA SANPAOLO PRIVATE BANKING S.P.A.</t>
         </is>
       </c>
       <c r="B364" s="1" t="inlineStr">
         <is>
-          <t>00799960158</t>
+          <t>00460870348</t>
         </is>
       </c>
       <c r="C364" s="1" t="inlineStr">
         <is>
-          <t>03069</t>
+          <t>03239</t>
         </is>
       </c>
       <c r="D364" s="1" t="inlineStr">
         <is>
-          <t>BCITITMM</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="E364" s="1" t="inlineStr">
@@ -22849,22 +22852,22 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>INVEST BANCA SOCIETA' PER AZIONI</t>
+          <t>INTESA SANPAOLO S.P.A.</t>
         </is>
       </c>
       <c r="B365" s="1" t="inlineStr">
         <is>
-          <t>02586460582</t>
+          <t>00799960158</t>
         </is>
       </c>
       <c r="C365" s="1" t="inlineStr">
         <is>
-          <t>03017</t>
+          <t>03069</t>
         </is>
       </c>
       <c r="D365" s="1" t="inlineStr">
         <is>
-          <t>NVESITRR</t>
+          <t>BCITITMM</t>
         </is>
       </c>
       <c r="E365" s="1" t="inlineStr">
@@ -22876,59 +22879,56 @@
         <v>1.0</v>
       </c>
       <c r="G365" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H365" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I365" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="J365" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K365" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L365" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M365" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>IW BANK S.P.A.</t>
+          <t>INVEST BANCA SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B366" s="1" t="inlineStr">
         <is>
-          <t>00485260459</t>
+          <t>02586460582</t>
         </is>
       </c>
       <c r="C366" s="1" t="inlineStr">
         <is>
-          <t>03083</t>
+          <t>03017</t>
         </is>
       </c>
       <c r="D366" s="1" t="inlineStr">
         <is>
-          <t>BLPIIT21</t>
+          <t>NVESITRR</t>
         </is>
       </c>
       <c r="E366" s="1" t="inlineStr">
@@ -22947,49 +22947,52 @@
       </c>
       <c r="I366" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J366" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K366" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L366" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M366" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>LA CASSA DI RAVENNA S.P.A.</t>
+          <t>IW BANK S.P.A.</t>
         </is>
       </c>
       <c r="B367" s="1" t="inlineStr">
         <is>
-          <t>01188860397</t>
+          <t>00485260459</t>
         </is>
       </c>
       <c r="C367" s="1" t="inlineStr">
         <is>
-          <t>06270</t>
+          <t>03083</t>
         </is>
       </c>
       <c r="D367" s="1" t="inlineStr">
         <is>
-          <t>CRRAIT2R</t>
+          <t>BLPIIT21</t>
         </is>
       </c>
       <c r="E367" s="1" t="inlineStr">
@@ -23001,7 +23004,7 @@
         <v>1.0</v>
       </c>
       <c r="G367" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H367" s="1" t="n">
         <v>1.0</v>
@@ -23028,29 +23031,29 @@
       </c>
       <c r="M367" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>NEXI S.P.A.</t>
+          <t>LA CASSA DI RAVENNA S.P.A.</t>
         </is>
       </c>
       <c r="B368" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>01188860397</t>
         </is>
       </c>
       <c r="C368" s="1" t="inlineStr">
         <is>
-          <t>05000</t>
+          <t>06270</t>
         </is>
       </c>
       <c r="D368" s="1" t="inlineStr">
         <is>
-          <t>CIPBITMM</t>
+          <t>CRRAIT2R</t>
         </is>
       </c>
       <c r="E368" s="1" t="inlineStr">
@@ -23069,52 +23072,49 @@
       </c>
       <c r="I368" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J368" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K368" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L368" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M368" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>NUOVA CASSA DI RISPARMIO DI FERRARA SPA</t>
+          <t>NEXI S.P.A.</t>
         </is>
       </c>
       <c r="B369" s="1" t="inlineStr">
         <is>
-          <t>13613381006</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C369" s="1" t="inlineStr">
         <is>
-          <t>06155</t>
+          <t>05000</t>
         </is>
       </c>
       <c r="D369" s="1" t="inlineStr">
         <is>
-          <t>CFERIT2F</t>
+          <t>CIPBITMM</t>
         </is>
       </c>
       <c r="E369" s="1" t="inlineStr">
@@ -23126,7 +23126,7 @@
         <v>1.0</v>
       </c>
       <c r="G369" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H369" s="1" t="n">
         <v>1.0</v>
@@ -23163,22 +23163,22 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>UNICREDIT, SOCIETA' PER AZIONI</t>
+          <t>NUOVA CASSA DI RISPARMIO DI FERRARA SPA</t>
         </is>
       </c>
       <c r="B370" s="1" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>13613381006</t>
         </is>
       </c>
       <c r="C370" s="1" t="inlineStr">
         <is>
-          <t>02008</t>
+          <t>06155</t>
         </is>
       </c>
       <c r="D370" s="1" t="inlineStr">
         <is>
-          <t>UNCRITMM</t>
+          <t>CFERIT2F</t>
         </is>
       </c>
       <c r="E370" s="1" t="inlineStr">
@@ -23190,56 +23190,59 @@
         <v>1.0</v>
       </c>
       <c r="G370" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H370" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I370" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J370" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K370" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L370" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M370" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>UNIONE DI BANCHE ITALIANE SOCIETA' PER AZIONI (IN FORMA ABBREVIATA UBI BANCA)</t>
+          <t>UNICREDIT, SOCIETA' PER AZIONI</t>
         </is>
       </c>
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C371" s="1" t="inlineStr">
         <is>
-          <t>03111</t>
+          <t>02008</t>
         </is>
       </c>
       <c r="D371" s="1" t="inlineStr">
         <is>
-          <t>BLOPIT22</t>
+          <t>UNCRITMM</t>
         </is>
       </c>
       <c r="E371" s="1" t="inlineStr">
@@ -23251,7 +23254,7 @@
         <v>1.0</v>
       </c>
       <c r="G371" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H371" s="1" t="n">
         <v>1.0</v>
@@ -23268,7 +23271,7 @@
       </c>
       <c r="K371" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L371" s="1" t="inlineStr">
@@ -23285,22 +23288,22 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>UNIPOL BANCA SPA</t>
+          <t>UNIONE DI BANCHE ITALIANE SOCIETA' PER AZIONI (IN FORMA ABBREVIATA UBI BANCA)</t>
         </is>
       </c>
       <c r="B372" s="1" t="inlineStr">
         <is>
-          <t>03719580379</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C372" s="1" t="inlineStr">
         <is>
-          <t>03127</t>
+          <t>03111</t>
         </is>
       </c>
       <c r="D372" s="1" t="inlineStr">
         <is>
-          <t>BAECIT2B</t>
+          <t>BLOPIT22</t>
         </is>
       </c>
       <c r="E372" s="1" t="inlineStr">
@@ -23312,59 +23315,56 @@
         <v>1.0</v>
       </c>
       <c r="G372" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H372" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I372" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J372" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K372" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L372" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M372" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>VIVIBANCA S.P.A.</t>
+          <t>UNIPOL BANCA SPA</t>
         </is>
       </c>
       <c r="B373" s="1" t="inlineStr">
         <is>
-          <t>04255700652</t>
+          <t>03719580379</t>
         </is>
       </c>
       <c r="C373" s="1" t="inlineStr">
         <is>
-          <t>05030</t>
+          <t>03127</t>
         </is>
       </c>
       <c r="D373" s="1" t="inlineStr">
         <is>
-          <t>CRSNIT31XXX</t>
+          <t>BAECIT2B</t>
         </is>
       </c>
       <c r="E373" s="1" t="inlineStr">
@@ -23376,56 +23376,59 @@
         <v>1.0</v>
       </c>
       <c r="G373" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H373" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I373" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J373" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K373" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L373" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M373" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>ALPENBANK A.G.</t>
+          <t>VIVIBANCA S.P.A.</t>
         </is>
       </c>
       <c r="B374" s="1" t="inlineStr">
         <is>
-          <t>94069700212</t>
+          <t>04255700652</t>
         </is>
       </c>
       <c r="C374" s="1" t="inlineStr">
         <is>
-          <t>03134</t>
+          <t>05030</t>
         </is>
       </c>
       <c r="D374" s="1" t="inlineStr">
         <is>
-          <t>ALPEIT21</t>
+          <t>CRSNIT31XXX</t>
         </is>
       </c>
       <c r="E374" s="1" t="inlineStr">
@@ -23437,59 +23440,56 @@
         <v>1.0</v>
       </c>
       <c r="G374" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H374" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I374" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J374" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="K374" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L374" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M374" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>ING BANK N.V.</t>
+          <t>ALPENBANK A.G.</t>
         </is>
       </c>
       <c r="B375" s="1" t="inlineStr">
         <is>
-          <t>11241140158</t>
+          <t>94069700212</t>
         </is>
       </c>
       <c r="C375" s="1" t="inlineStr">
         <is>
-          <t>03475</t>
+          <t>03134</t>
         </is>
       </c>
       <c r="D375" s="1" t="inlineStr">
         <is>
-          <t>INGBITMM</t>
+          <t>ALPEIT21</t>
         </is>
       </c>
       <c r="E375" s="1" t="inlineStr">
@@ -23501,7 +23501,7 @@
         <v>1.0</v>
       </c>
       <c r="G375" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H375" s="1" t="n">
         <v>1.0</v>
@@ -23538,22 +23538,22 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>ipagoo LLP</t>
+          <t>ING BANK N.V.</t>
         </is>
       </c>
       <c r="B376" s="1" t="inlineStr">
         <is>
-          <t>08520980965</t>
+          <t>11241140158</t>
         </is>
       </c>
       <c r="C376" s="1" t="inlineStr">
         <is>
-          <t>36049</t>
+          <t>03475</t>
         </is>
       </c>
       <c r="D376" s="1" t="inlineStr">
         <is>
-          <t>ORUNGB2L</t>
+          <t>INGBITMM</t>
         </is>
       </c>
       <c r="E376" s="1" t="inlineStr">
@@ -23572,49 +23572,52 @@
       </c>
       <c r="I376" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J376" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K376" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L376" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M376" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Satispay Limited</t>
+          <t>ipagoo LLP</t>
         </is>
       </c>
       <c r="B377" s="1" t="inlineStr">
         <is>
-          <t>GB254980378</t>
+          <t>08520980965</t>
         </is>
       </c>
       <c r="C377" s="1" t="inlineStr">
         <is>
-          <t>xxxxx</t>
+          <t>36049</t>
         </is>
       </c>
       <c r="D377" s="1" t="inlineStr">
         <is>
-          <t>SATYGB21</t>
+          <t>ORUNGB2L</t>
         </is>
       </c>
       <c r="E377" s="1" t="inlineStr">
@@ -23626,59 +23629,56 @@
         <v>1.0</v>
       </c>
       <c r="G377" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H377" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I377" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J377" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="K377" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L377" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M377" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>A-TONO PAYMENT INSTITUTE SPA</t>
+          <t>Satispay Limited</t>
         </is>
       </c>
       <c r="B378" s="1" t="inlineStr">
         <is>
-          <t>09217250969</t>
+          <t>GB254980378</t>
         </is>
       </c>
       <c r="C378" s="1" t="inlineStr">
         <is>
-          <t>36064</t>
+          <t>xxxxx</t>
         </is>
       </c>
       <c r="D378" s="1" t="inlineStr">
         <is>
-          <t>ATPIITM1</t>
+          <t>SATYGB21</t>
         </is>
       </c>
       <c r="E378" s="1" t="inlineStr">
@@ -23690,56 +23690,59 @@
         <v>1.0</v>
       </c>
       <c r="G378" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H378" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="I378" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J378" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K378" s="1" t="inlineStr">
         <is>
-          <t>Sì per propri correntisti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L378" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M378" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>American Express Payment Services LTD.</t>
+          <t>A-TONO PAYMENT INSTITUTE SPA</t>
         </is>
       </c>
       <c r="B379" s="1" t="inlineStr">
         <is>
-          <t>10725181001</t>
+          <t>09217250969</t>
         </is>
       </c>
       <c r="C379" s="1" t="inlineStr">
         <is>
-          <t>36019</t>
+          <t>36064</t>
         </is>
       </c>
       <c r="D379" s="1" t="inlineStr">
         <is>
-          <t>xxxxxxxxxx</t>
+          <t>ATPIITM1</t>
         </is>
       </c>
       <c r="E379" s="1" t="inlineStr">
@@ -23751,59 +23754,56 @@
         <v>1.0</v>
       </c>
       <c r="G379" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H379" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I379" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J379" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K379" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per propri correntisti</t>
         </is>
       </c>
       <c r="L379" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M379" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>CABEL IP S.P.A.</t>
+          <t>ADMIRAL PAY  ISTITUTO DI PAGAMENTO - SOCIETA' A RESPONSABILITA' LIMITATA</t>
         </is>
       </c>
       <c r="B380" s="1" t="inlineStr">
         <is>
-          <t>06078740484</t>
+          <t>04335420404</t>
         </is>
       </c>
       <c r="C380" s="1" t="inlineStr">
         <is>
-          <t>36018</t>
+          <t>36080</t>
         </is>
       </c>
       <c r="D380" s="1" t="inlineStr">
         <is>
-          <t>CBPSIT31XXX</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="E380" s="1" t="inlineStr">
@@ -23852,22 +23852,22 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>CITYPOSTE PAYMENT SPA - CPP SPA</t>
+          <t>American Express Payment Services LTD.</t>
         </is>
       </c>
       <c r="B381" s="1" t="inlineStr">
         <is>
-          <t>01806800676</t>
+          <t>10725181001</t>
         </is>
       </c>
       <c r="C381" s="1" t="inlineStr">
         <is>
-          <t>36024</t>
+          <t>36019</t>
         </is>
       </c>
       <c r="D381" s="1" t="inlineStr">
         <is>
-          <t>CIPYIT31K</t>
+          <t>xxxxxxxxxx</t>
         </is>
       </c>
       <c r="E381" s="1" t="inlineStr">
@@ -23879,10 +23879,10 @@
         <v>1.0</v>
       </c>
       <c r="G381" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H381" s="1" t="n">
         <v>0.0</v>
-      </c>
-      <c r="H381" s="1" t="n">
-        <v>1.0</v>
       </c>
       <c r="I381" s="1" t="inlineStr">
         <is>
@@ -23916,22 +23916,22 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>ICONTO S.R.L.</t>
+          <t>CABEL IP S.P.A.</t>
         </is>
       </c>
       <c r="B382" s="1" t="inlineStr">
         <is>
-          <t>14847241008</t>
+          <t>06078740484</t>
         </is>
       </c>
       <c r="C382" s="1" t="inlineStr">
         <is>
-          <t>36042</t>
+          <t>36018</t>
         </is>
       </c>
       <c r="D382" s="1" t="inlineStr">
         <is>
-          <t>IFSPIT21</t>
+          <t>CBPSIT31XXX</t>
         </is>
       </c>
       <c r="E382" s="1" t="inlineStr">
@@ -23943,10 +23943,10 @@
         <v>1.0</v>
       </c>
       <c r="G382" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H382" s="1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I382" s="1" t="inlineStr">
         <is>
@@ -23980,22 +23980,22 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>LIS ISTITUTO DI PAGAMENTO SPA</t>
+          <t>CITYPOSTE PAYMENT SPA - CPP SPA</t>
         </is>
       </c>
       <c r="B383" s="1" t="inlineStr">
         <is>
-          <t>03396740965</t>
+          <t>01806800676</t>
         </is>
       </c>
       <c r="C383" s="1" t="inlineStr">
         <is>
-          <t>32698</t>
+          <t>36024</t>
         </is>
       </c>
       <c r="D383" s="1" t="inlineStr">
         <is>
-          <t>LIIPITM1</t>
+          <t>CIPYIT31K</t>
         </is>
       </c>
       <c r="E383" s="1" t="inlineStr">
@@ -24014,49 +24014,52 @@
       </c>
       <c r="I383" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J383" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K383" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L383" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M383" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>PAYTIPPER SPA</t>
+          <t>ICONTO S.R.L.</t>
         </is>
       </c>
       <c r="B384" s="1" t="inlineStr">
         <is>
-          <t>07338820967</t>
+          <t>14847241008</t>
         </is>
       </c>
       <c r="C384" s="1" t="inlineStr">
         <is>
-          <t>36017</t>
+          <t>36042</t>
         </is>
       </c>
       <c r="D384" s="1" t="inlineStr">
         <is>
-          <t>PAYTITM1</t>
+          <t>IFSPIT21</t>
         </is>
       </c>
       <c r="E384" s="1" t="inlineStr">
@@ -24068,56 +24071,59 @@
         <v>1.0</v>
       </c>
       <c r="G384" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H384" s="1" t="n">
         <v>0.0</v>
       </c>
-      <c r="H384" s="1" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I384" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="J384" s="1" t="inlineStr">
         <is>
-          <t>Sì per tutti</t>
+          <t>non comunicato</t>
         </is>
       </c>
       <c r="K384" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="L384" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non 
+ comunicato</t>
         </is>
       </c>
       <c r="M384" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>non comunicato</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>SE.PA.FIN. SPA</t>
+          <t>LIS ISTITUTO DI PAGAMENTO SPA</t>
         </is>
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>07783020725</t>
+          <t>03396740965</t>
         </is>
       </c>
       <c r="C385" s="1" t="inlineStr">
         <is>
-          <t>36063</t>
+          <t>32698</t>
         </is>
       </c>
       <c r="D385" s="1" t="inlineStr">
         <is>
-          <t>31XXX</t>
+          <t>LIIPITM1</t>
         </is>
       </c>
       <c r="E385" s="1" t="inlineStr">
@@ -24136,52 +24142,49 @@
       </c>
       <c r="I385" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="J385" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K385" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L385" s="1" t="inlineStr">
         <is>
-          <t>non 
- comunicato</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M385" s="1" t="inlineStr">
         <is>
-          <t>non comunicato</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>SISAL GROUP SPA</t>
+          <t>PAYTIPPER SPA</t>
         </is>
       </c>
       <c r="B386" s="1" t="inlineStr">
         <is>
-          <t>05425630968</t>
+          <t>07338820967</t>
         </is>
       </c>
       <c r="C386" s="1" t="inlineStr">
         <is>
-          <t>33500</t>
+          <t>36017</t>
         </is>
       </c>
       <c r="D386" s="1" t="inlineStr">
         <is>
-          <t>SIGPITM1XXX</t>
+          <t>PAYTITM1</t>
         </is>
       </c>
       <c r="E386" s="1" t="inlineStr">
@@ -24205,7 +24208,7 @@
       </c>
       <c r="J386" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sì per tutti</t>
         </is>
       </c>
       <c r="K386" s="1" t="inlineStr">
@@ -24219,6 +24222,131 @@
         </is>
       </c>
       <c r="M386" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>SE.PA.FIN. SPA</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="inlineStr">
+        <is>
+          <t>07783020725</t>
+        </is>
+      </c>
+      <c r="C387" s="1" t="inlineStr">
+        <is>
+          <t>36063</t>
+        </is>
+      </c>
+      <c r="D387" s="1" t="inlineStr">
+        <is>
+          <t>31XXX</t>
+        </is>
+      </c>
+      <c r="E387" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F387" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H387" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I387" s="1" t="inlineStr">
+        <is>
+          <t>non 
+ comunicato</t>
+        </is>
+      </c>
+      <c r="J387" s="1" t="inlineStr">
+        <is>
+          <t>non comunicato</t>
+        </is>
+      </c>
+      <c r="K387" s="1" t="inlineStr">
+        <is>
+          <t>non 
+ comunicato</t>
+        </is>
+      </c>
+      <c r="L387" s="1" t="inlineStr">
+        <is>
+          <t>non 
+ comunicato</t>
+        </is>
+      </c>
+      <c r="M387" s="1" t="inlineStr">
+        <is>
+          <t>non comunicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>SISAL GROUP SPA</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="inlineStr">
+        <is>
+          <t>05425630968</t>
+        </is>
+      </c>
+      <c r="C388" s="1" t="inlineStr">
+        <is>
+          <t>33500</t>
+        </is>
+      </c>
+      <c r="D388" s="1" t="inlineStr">
+        <is>
+          <t>SIGPITM1XXX</t>
+        </is>
+      </c>
+      <c r="E388" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F388" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H388" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I388" s="1" t="inlineStr">
+        <is>
+          <t>Sì per tutti</t>
+        </is>
+      </c>
+      <c r="J388" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K388" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L388" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M388" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/data/pagopa-psp.xlsx
+++ b/data/pagopa-psp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20190628\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20190731\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1518">
   <si>
     <t>Denominazione</t>
   </si>
@@ -1743,18 +1743,6 @@
     <t>ICRAITRRK80</t>
   </si>
   <si>
-    <t>BANCA S. BIAGIO DEL VENETO ORIENTALE DI CESAROLO, FOSSALTA DI PORTOGRUARO E PERTEGADA - B.C.C. - SOCIETA' COOPERATIVA</t>
-  </si>
-  <si>
-    <t>02794950275</t>
-  </si>
-  <si>
-    <t>08965</t>
-  </si>
-  <si>
-    <t>CCRTIT2TU00</t>
-  </si>
-  <si>
     <t>BANCA SAN FRANCESCO CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
   </si>
   <si>
@@ -2523,18 +2511,6 @@
     <t>CCRTIT2T06A</t>
   </si>
   <si>
-    <t>CASSA RURALE DI LIZZANA - BANCA DI CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
-  </si>
-  <si>
-    <t>00106180227</t>
-  </si>
-  <si>
-    <t>08123</t>
-  </si>
-  <si>
-    <t>CCRTIT2T33A</t>
-  </si>
-  <si>
     <t>CASSA RURALE DI ROVERETO - BANCA DI CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
   </si>
   <si>
@@ -2739,18 +2715,6 @@
     <t>CCRTIT2T54A</t>
   </si>
   <si>
-    <t>CASSA RURALE PINZOLO - BANCA DI CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
-  </si>
-  <si>
-    <t>00158500223</t>
-  </si>
-  <si>
-    <t>08179</t>
-  </si>
-  <si>
-    <t>CCRTIT2T48A</t>
-  </si>
-  <si>
     <t>CASSA RURALE RENON SOCIETA' COOPERATIVA (IN LINGUA TEDESCA RAIFFEISENKASSE RITTEN GENOSSENSCHAFT)</t>
   </si>
   <si>
@@ -2799,18 +2763,6 @@
     <t>CCRTIT2T43A</t>
   </si>
   <si>
-    <t>CASSA RURALE VAL RENDENA - BANCA DI CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
-  </si>
-  <si>
-    <t>00158660225</t>
-  </si>
-  <si>
-    <t>08248</t>
-  </si>
-  <si>
-    <t>CCRTIT2T63A</t>
-  </si>
-  <si>
     <t>CASSA RURALE VALLAGARINA - BANCA DI CREDITO COOPERATIVO - SOCIETA' COOPERATIVA</t>
   </si>
   <si>
@@ -3471,18 +3423,6 @@
     <t>ITBBITM1</t>
   </si>
   <si>
-    <t>BANCA APULIA SOCIETA' PER AZIONI</t>
-  </si>
-  <si>
-    <t>00148520711</t>
-  </si>
-  <si>
-    <t>05787</t>
-  </si>
-  <si>
-    <t>APULIT31XXX</t>
-  </si>
-  <si>
     <t>BANCA CAMBIANO 1884 S.P.A.</t>
   </si>
   <si>
@@ -3819,18 +3759,6 @@
     <t>BPAAIT2B</t>
   </si>
   <si>
-    <t>BANCA POPOLARE DI SPOLETO S.P.A.</t>
-  </si>
-  <si>
-    <t>01959720549</t>
-  </si>
-  <si>
-    <t>05704</t>
-  </si>
-  <si>
-    <t>BPSPIT31XXX</t>
-  </si>
-  <si>
     <t>BANCA PROMOS S.P.A.</t>
   </si>
   <si>
@@ -3843,18 +3771,6 @@
     <t>PROSITNNXXX</t>
   </si>
   <si>
-    <t>BANCA PROSSIMA S.P.A. (IN FORMA ABBREVIATA PROSSIMA S.P.A.)</t>
-  </si>
-  <si>
-    <t>05836420967</t>
-  </si>
-  <si>
-    <t>03359</t>
-  </si>
-  <si>
-    <t>BCITITMX</t>
-  </si>
-  <si>
     <t>BANCA REALE S.P.A.</t>
   </si>
   <si>
@@ -4299,18 +4215,6 @@
     <t>DEUTITMM</t>
   </si>
   <si>
-    <t>DOBANK SPA</t>
-  </si>
-  <si>
-    <t>02659940239</t>
-  </si>
-  <si>
-    <t>10639</t>
-  </si>
-  <si>
-    <t>UNGCIT21</t>
-  </si>
-  <si>
     <t>FIDEURAM - INTESA SANPAOLO PRIVATE BANKING S.P.A.</t>
   </si>
   <si>
@@ -4380,7 +4284,7 @@
     <t>03239</t>
   </si>
   <si>
-    <t>xxxxxxxx</t>
+    <t>BCITITM3XXX</t>
   </si>
   <si>
     <t>INTESA SANPAOLO S.P.A.</t>
@@ -4441,18 +4345,6 @@
   </si>
   <si>
     <t>CIPBITMM</t>
-  </si>
-  <si>
-    <t>NUOVA CASSA DI RISPARMIO DI FERRARA SPA</t>
-  </si>
-  <si>
-    <t>13613381006</t>
-  </si>
-  <si>
-    <t>06155</t>
-  </si>
-  <si>
-    <t>CFERIT2F</t>
   </si>
   <si>
     <t>UNICREDIT, SOCIETA' PER AZIONI</t>
@@ -5003,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H387"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8733,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="1">
         <v>1</v>
@@ -8759,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" s="1">
         <v>1</v>
@@ -8785,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
@@ -8811,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
@@ -8837,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="1">
         <v>1</v>
@@ -8889,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="1">
         <v>1</v>
@@ -8941,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="1">
         <v>1</v>
@@ -8967,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="1">
         <v>1</v>
@@ -8993,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" s="1">
         <v>1</v>
@@ -9019,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" s="1">
         <v>1</v>
@@ -9045,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="1">
         <v>1</v>
@@ -9071,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" s="1">
         <v>1</v>
@@ -9097,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" s="1">
         <v>1</v>
@@ -9123,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" s="1">
         <v>1</v>
@@ -9175,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1">
         <v>1</v>
@@ -9201,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="1">
         <v>1</v>
@@ -9669,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" s="1">
         <v>1</v>
@@ -9695,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="1">
         <v>1</v>
@@ -10527,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" s="1">
         <v>1</v>
@@ -10631,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" s="1">
         <v>1</v>
@@ -10657,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="G217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" s="1">
         <v>1</v>
@@ -10761,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="G221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="1">
         <v>1</v>
@@ -10839,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="G224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" s="1">
         <v>1</v>
@@ -10891,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="G226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" s="1">
         <v>1</v>
@@ -10917,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" s="1">
         <v>1</v>
@@ -11047,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="G232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" s="1">
         <v>1</v>
@@ -11125,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="G235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" s="1">
         <v>1</v>
@@ -11203,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" s="1">
         <v>1</v>
@@ -11229,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" s="1">
         <v>1</v>
@@ -11307,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" s="1">
         <v>1</v>
@@ -11385,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245" s="1">
         <v>1</v>
@@ -11463,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" s="1">
         <v>1</v>
@@ -11593,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="1">
         <v>1</v>
@@ -11671,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="G256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" s="1">
         <v>1</v>
@@ -11697,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="G257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" s="1">
         <v>1</v>
@@ -11749,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="G259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" s="1">
         <v>1</v>
@@ -11775,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" s="1">
         <v>1</v>
@@ -11983,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="G268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268" s="1">
         <v>1</v>
@@ -12035,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="G270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="1">
         <v>1</v>
@@ -12061,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="G271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="1">
         <v>1</v>
@@ -12113,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="G273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" s="1">
         <v>1</v>
@@ -12165,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="G275" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" s="1">
         <v>1</v>
@@ -12321,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="G281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" s="1">
         <v>1</v>
@@ -12451,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="G286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" s="1">
         <v>1</v>
@@ -12659,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="G294" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" s="1">
         <v>1</v>
@@ -12711,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="G296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H296" s="1">
         <v>1</v>
@@ -12789,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="G299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299" s="1">
         <v>1</v>
@@ -12945,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="G305" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" s="1">
         <v>1</v>
@@ -13023,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="G308" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" s="1">
         <v>1</v>
@@ -13153,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="G313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313" s="1">
         <v>1</v>
@@ -13231,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="G316" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H316" s="1">
         <v>1</v>
@@ -13387,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H322" s="1">
         <v>1</v>
@@ -13413,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="G323" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" s="1">
         <v>1</v>
@@ -13439,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="G324" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324" s="1">
         <v>1</v>
@@ -13543,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="G328" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" s="1">
         <v>1</v>
@@ -13569,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="G329" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329" s="1">
         <v>1</v>
@@ -13595,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="G330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330" s="1">
         <v>1</v>
@@ -13621,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="G331" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H331" s="1">
         <v>1</v>
@@ -13647,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="G332" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332" s="1">
         <v>1</v>
@@ -13751,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="G336" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H336" s="1">
         <v>1</v>
@@ -13829,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="G339" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H339" s="1">
         <v>1</v>
@@ -13933,7 +13825,7 @@
         <v>1</v>
       </c>
       <c r="G343" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343" s="1">
         <v>1</v>
@@ -13959,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="G344" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344" s="1">
         <v>1</v>
@@ -13985,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="G345" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345" s="1">
         <v>1</v>
@@ -14037,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="G347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" s="1">
         <v>1</v>
@@ -14089,7 +13981,7 @@
         <v>1</v>
       </c>
       <c r="G349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H349" s="1">
         <v>1</v>
@@ -14115,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="G350" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350" s="1">
         <v>1</v>
@@ -14141,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="G351" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351" s="1">
         <v>1</v>
@@ -14167,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="G352" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H352" s="1">
         <v>1</v>
@@ -14193,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="G353" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H353" s="1">
         <v>1</v>
@@ -14245,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="G355" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355" s="1">
         <v>1</v>
@@ -14271,10 +14163,10 @@
         <v>1</v>
       </c>
       <c r="G356" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H356" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -14323,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H358" s="1">
         <v>1</v>
@@ -14349,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359" s="1">
         <v>1</v>
@@ -14375,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="G360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H360" s="1">
         <v>1</v>
@@ -14401,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H361" s="1">
         <v>1</v>
@@ -14453,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="G363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H363" s="1">
         <v>1</v>
@@ -14479,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="G364" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" s="1">
         <v>1</v>
@@ -14531,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="G366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H366" s="1">
         <v>1</v>
@@ -14609,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="G369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H369" s="1">
         <v>1</v>
@@ -14635,10 +14527,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -14661,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="G371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371" s="1">
         <v>1</v>
@@ -14716,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="H373" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -14791,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="G376" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H376" s="1">
         <v>1</v>
@@ -14846,240 +14738,6 @@
         <v>0</v>
       </c>
       <c r="H378" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F379" s="1">
-        <v>1</v>
-      </c>
-      <c r="G379" s="1">
-        <v>1</v>
-      </c>
-      <c r="H379" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F380" s="1">
-        <v>1</v>
-      </c>
-      <c r="G380" s="1">
-        <v>0</v>
-      </c>
-      <c r="H380" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F381" s="1">
-        <v>1</v>
-      </c>
-      <c r="G381" s="1">
-        <v>0</v>
-      </c>
-      <c r="H381" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F382" s="1">
-        <v>1</v>
-      </c>
-      <c r="G382" s="1">
-        <v>1</v>
-      </c>
-      <c r="H382" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F383" s="1">
-        <v>1</v>
-      </c>
-      <c r="G383" s="1">
-        <v>0</v>
-      </c>
-      <c r="H383" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F384" s="1">
-        <v>1</v>
-      </c>
-      <c r="G384" s="1">
-        <v>0</v>
-      </c>
-      <c r="H384" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F385" s="1">
-        <v>1</v>
-      </c>
-      <c r="G385" s="1">
-        <v>0</v>
-      </c>
-      <c r="H385" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F386" s="1">
-        <v>1</v>
-      </c>
-      <c r="G386" s="1">
-        <v>0</v>
-      </c>
-      <c r="H386" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F387" s="1">
-        <v>1</v>
-      </c>
-      <c r="G387" s="1">
-        <v>0</v>
-      </c>
-      <c r="H387" s="1">
         <v>1</v>
       </c>
     </row>

--- a/data/pagopa-psp.xlsx
+++ b/data/pagopa-psp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20190731\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20190911\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4589,7 +4589,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="TAHOMA"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4897,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/pagopa-psp.xlsx
+++ b/data/pagopa-psp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20190924\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavoro\AgID\FLUSSI PER COMUNICAZIONE\20191028\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1517">
   <si>
     <t>Denominazione</t>
   </si>
@@ -1750,18 +1750,6 @@
   </si>
   <si>
     <t>CCRTIT2TC11</t>
-  </si>
-  <si>
-    <t>BANCA SANTO STEFANO - CREDITO COOPERATIVO - MARTELLAGO-VENEZIA - SOCIETA' COOPERATIVA</t>
-  </si>
-  <si>
-    <t>00226370278</t>
-  </si>
-  <si>
-    <t>08990</t>
-  </si>
-  <si>
-    <t>ICRAITRRRI0</t>
   </si>
   <si>
     <t>BANCA SICANA - CREDITO COOPERATIVO DI SOMMATINO, SERRADIFALCO E SAMBUCA DI SICILIA - SOCIETA' COOPERATIVA</t>
@@ -4917,10 +4905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,16 +4951,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -4989,16 +4977,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -5015,16 +5003,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -5041,16 +5029,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -5067,16 +5055,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -5093,16 +5081,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -5119,16 +5107,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -5145,16 +5133,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -5171,16 +5159,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -5197,16 +5185,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -5223,16 +5211,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -5249,16 +5237,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -5275,16 +5263,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -5301,16 +5289,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -5327,16 +5315,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -5353,16 +5341,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
@@ -5379,16 +5367,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
@@ -5405,16 +5393,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
@@ -5431,16 +5419,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
@@ -5457,16 +5445,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -5483,16 +5471,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
@@ -5509,16 +5497,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -5535,16 +5523,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
@@ -5561,16 +5549,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
@@ -5587,16 +5575,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
@@ -5613,16 +5601,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
@@ -5639,16 +5627,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
@@ -5665,16 +5653,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -5691,16 +5679,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -5717,16 +5705,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -5743,16 +5731,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
@@ -5769,16 +5757,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
@@ -5795,16 +5783,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
@@ -5821,16 +5809,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
@@ -5847,16 +5835,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
@@ -5873,16 +5861,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
@@ -5899,16 +5887,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
@@ -5925,16 +5913,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
@@ -5951,16 +5939,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -5977,16 +5965,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>17</v>
@@ -6003,16 +5991,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -6029,16 +6017,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -6055,16 +6043,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -6081,16 +6069,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
@@ -6107,16 +6095,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>17</v>
@@ -6133,16 +6121,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
@@ -6159,16 +6147,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>17</v>
@@ -6185,16 +6173,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>17</v>
@@ -6211,16 +6199,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>17</v>
@@ -6237,16 +6225,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>17</v>
@@ -6263,16 +6251,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>17</v>
@@ -6289,16 +6277,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>17</v>
@@ -6315,16 +6303,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>17</v>
@@ -6341,16 +6329,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>17</v>
@@ -6367,16 +6355,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>17</v>
@@ -6393,16 +6381,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>17</v>
@@ -6419,16 +6407,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>17</v>
@@ -6445,16 +6433,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>17</v>
@@ -6471,16 +6459,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>17</v>
@@ -6497,16 +6485,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>17</v>
@@ -6523,16 +6511,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>17</v>
@@ -6549,16 +6537,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>17</v>
@@ -6575,16 +6563,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>17</v>
@@ -6601,16 +6589,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
@@ -6627,16 +6615,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
@@ -6653,16 +6641,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>17</v>
@@ -6679,16 +6667,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>17</v>
@@ -6705,16 +6693,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>17</v>
@@ -6731,16 +6719,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>17</v>
@@ -6757,16 +6745,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>17</v>
@@ -6783,16 +6771,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>17</v>
@@ -6809,16 +6797,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>17</v>
@@ -6835,16 +6823,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>17</v>
@@ -6861,16 +6849,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>17</v>
@@ -6887,16 +6875,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>17</v>
@@ -6913,16 +6901,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>17</v>
@@ -6939,16 +6927,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>17</v>
@@ -6965,16 +6953,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>17</v>
@@ -6991,16 +6979,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>17</v>
@@ -7017,16 +7005,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>17</v>
@@ -7043,16 +7031,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>17</v>
@@ -7069,16 +7057,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>17</v>
@@ -7095,16 +7083,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>17</v>
@@ -7121,16 +7109,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>17</v>
@@ -7147,16 +7135,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>17</v>
@@ -7173,16 +7161,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>17</v>
@@ -7199,16 +7187,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>17</v>
@@ -7225,16 +7213,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>17</v>
@@ -7251,16 +7239,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>17</v>
@@ -7277,16 +7265,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>17</v>
@@ -7303,16 +7291,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>17</v>
@@ -7329,16 +7317,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>17</v>
@@ -7355,16 +7343,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>17</v>
@@ -7381,16 +7369,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>17</v>
@@ -7407,16 +7395,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>17</v>
@@ -7433,16 +7421,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>17</v>
@@ -7459,16 +7447,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>17</v>
@@ -7485,16 +7473,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>17</v>
@@ -7511,16 +7499,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>17</v>
@@ -7537,16 +7525,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>17</v>
@@ -7563,16 +7551,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>17</v>
@@ -7589,16 +7577,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>17</v>
@@ -7615,16 +7603,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>17</v>
@@ -7641,16 +7629,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>17</v>
@@ -7667,16 +7655,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>17</v>
@@ -7693,16 +7681,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>17</v>
@@ -7719,16 +7707,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>17</v>
@@ -7745,16 +7733,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>17</v>
@@ -7771,16 +7759,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>17</v>
@@ -7875,16 +7863,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>17</v>
@@ -7927,16 +7915,16 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>17</v>
@@ -7953,16 +7941,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>17</v>
@@ -8005,16 +7993,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>17</v>
@@ -8083,16 +8071,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>17</v>
@@ -8135,16 +8123,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>17</v>
@@ -8447,16 +8435,16 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>17</v>
@@ -8473,16 +8461,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>17</v>
@@ -8499,16 +8487,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>17</v>
@@ -8525,16 +8513,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>17</v>
@@ -8551,16 +8539,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>17</v>
@@ -8577,16 +8565,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>17</v>
@@ -8603,16 +8591,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>17</v>
@@ -8655,16 +8643,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>17</v>
@@ -8681,16 +8669,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>17</v>
@@ -8707,16 +8695,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>17</v>
@@ -8733,16 +8721,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>17</v>
@@ -8785,16 +8773,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>17</v>
@@ -8811,16 +8799,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>17</v>
@@ -8837,16 +8825,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>17</v>
@@ -8889,16 +8877,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>17</v>
@@ -8915,16 +8903,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>17</v>
@@ -8941,16 +8929,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>17</v>
@@ -8967,16 +8955,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>17</v>
@@ -8993,16 +8981,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>17</v>
@@ -9019,16 +9007,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>17</v>
@@ -9045,16 +9033,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>17</v>
@@ -9071,16 +9059,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>17</v>
@@ -9097,16 +9085,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>17</v>
@@ -9149,16 +9137,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>17</v>
@@ -9175,16 +9163,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>17</v>
@@ -9201,16 +9189,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>17</v>
@@ -9227,16 +9215,16 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>17</v>
@@ -9253,16 +9241,16 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>17</v>
@@ -9331,16 +9319,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>17</v>
@@ -9357,16 +9345,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>17</v>
@@ -9383,16 +9371,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>17</v>
@@ -9409,16 +9397,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>17</v>
@@ -9435,16 +9423,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>17</v>
@@ -9461,16 +9449,16 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>17</v>
@@ -9487,16 +9475,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>17</v>
@@ -9513,16 +9501,16 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>17</v>
@@ -9539,16 +9527,16 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>17</v>
@@ -9591,16 +9579,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>17</v>
@@ -9617,16 +9605,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>17</v>
@@ -9643,16 +9631,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>17</v>
@@ -9669,16 +9657,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>17</v>
@@ -9695,16 +9683,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>17</v>
@@ -9721,16 +9709,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>17</v>
@@ -9747,16 +9735,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>17</v>
@@ -9773,16 +9761,16 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>17</v>
@@ -9799,16 +9787,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>17</v>
@@ -9825,16 +9813,16 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>17</v>
@@ -9851,16 +9839,16 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>17</v>
@@ -9877,16 +9865,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>17</v>
@@ -9903,16 +9891,16 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>17</v>
@@ -9929,16 +9917,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>17</v>
@@ -9955,16 +9943,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>17</v>
@@ -9981,16 +9969,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>17</v>
@@ -10007,16 +9995,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>17</v>
@@ -10033,16 +10021,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>17</v>
@@ -10059,16 +10047,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>17</v>
@@ -10085,16 +10073,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>17</v>
@@ -10111,16 +10099,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>17</v>
@@ -10137,16 +10125,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>17</v>
@@ -10163,16 +10151,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>17</v>
@@ -10215,16 +10203,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>17</v>
@@ -10319,16 +10307,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>17</v>
@@ -10605,16 +10593,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>17</v>
@@ -10657,16 +10645,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>17</v>
@@ -10683,16 +10671,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>17</v>
@@ -10709,16 +10697,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>17</v>
@@ -10735,16 +10723,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>17</v>
@@ -10761,16 +10749,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>17</v>
@@ -10865,16 +10853,16 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>17</v>
@@ -10891,16 +10879,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>17</v>
@@ -11047,16 +11035,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>17</v>
@@ -11177,16 +11165,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>17</v>
@@ -11229,16 +11217,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>17</v>
@@ -11333,16 +11321,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>17</v>
@@ -11359,16 +11347,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>17</v>
@@ -11437,16 +11425,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>17</v>
@@ -11489,16 +11477,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>17</v>
@@ -11515,16 +11503,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>17</v>
@@ -11619,16 +11607,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>17</v>
@@ -11723,16 +11711,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>17</v>
@@ -11749,16 +11737,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>17</v>
@@ -11775,16 +11763,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>17</v>
@@ -11836,7 +11824,7 @@
         <v>308</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>17</v>
@@ -11983,16 +11971,16 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>17</v>
@@ -12009,16 +11997,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>17</v>
@@ -12035,16 +12023,16 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>17</v>
@@ -12191,16 +12179,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>17</v>
@@ -12217,16 +12205,16 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>17</v>
@@ -12243,16 +12231,16 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>17</v>
@@ -12295,16 +12283,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>17</v>
@@ -12659,16 +12647,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>17</v>
@@ -12685,16 +12673,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>17</v>
@@ -12841,16 +12829,16 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>17</v>
@@ -12919,16 +12907,16 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>17</v>
@@ -13023,16 +13011,16 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>17</v>
@@ -13153,16 +13141,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>17</v>
@@ -13413,16 +13401,16 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>17</v>
@@ -13439,16 +13427,16 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>17</v>
@@ -13647,16 +13635,16 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>17</v>
@@ -13673,16 +13661,16 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>17</v>
@@ -13777,16 +13765,16 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>17</v>
@@ -13803,16 +13791,16 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E342" s="3" t="s">
         <v>17</v>
@@ -13855,16 +13843,16 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>17</v>
@@ -14193,16 +14181,16 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>17</v>
@@ -14219,16 +14207,16 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>17</v>
@@ -14297,16 +14285,16 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>577</v>
+        <v>992</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>578</v>
+        <v>993</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>579</v>
+        <v>994</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>580</v>
+        <v>995</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>17</v>
@@ -14315,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" s="3">
         <v>1</v>
@@ -14323,16 +14311,16 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>996</v>
+        <v>417</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>997</v>
+        <v>418</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>998</v>
+        <v>419</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>999</v>
+        <v>420</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>17</v>
@@ -14349,16 +14337,16 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>417</v>
+        <v>665</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>418</v>
+        <v>666</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>419</v>
+        <v>667</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>420</v>
+        <v>668</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>17</v>
@@ -14375,16 +14363,16 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>669</v>
+        <v>1483</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>670</v>
+        <v>1484</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>671</v>
+        <v>1485</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>672</v>
+        <v>1486</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>17</v>
@@ -14393,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="G364" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" s="3">
         <v>1</v>
@@ -14401,16 +14389,16 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1487</v>
+        <v>1495</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1490</v>
+        <v>1498</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>17</v>
@@ -14427,16 +14415,16 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>17</v>
@@ -14453,16 +14441,16 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>17</v>
@@ -14479,16 +14467,16 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>17</v>
@@ -14497,24 +14485,24 @@
         <v>1</v>
       </c>
       <c r="G368" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>17</v>
@@ -14523,10 +14511,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H369" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -14549,24 +14537,24 @@
         <v>1</v>
       </c>
       <c r="G370" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1484</v>
+        <v>1500</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1485</v>
+        <v>1501</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>17</v>
@@ -14575,24 +14563,24 @@
         <v>1</v>
       </c>
       <c r="G371" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>17</v>
@@ -14609,16 +14597,16 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1495</v>
+        <v>1459</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1496</v>
+        <v>1460</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1497</v>
+        <v>1461</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1498</v>
+        <v>1462</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>17</v>
@@ -14661,16 +14649,16 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>17</v>
@@ -14679,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="G375" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375" s="3">
         <v>1</v>
@@ -14687,16 +14675,16 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>17</v>
@@ -14705,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="G376" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H376" s="3">
         <v>1</v>
@@ -14713,25 +14701,25 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1455</v>
+        <v>8</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1456</v>
+        <v>9</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1457</v>
+        <v>10</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1458</v>
+        <v>11</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F377" s="3">
         <v>1</v>
       </c>
       <c r="G377" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377" s="3">
         <v>1</v>
@@ -14739,60 +14727,34 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>8</v>
+        <v>1514</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>9</v>
+        <v>1515</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>10</v>
+        <v>1516</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>11</v>
+        <v>712</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F378" s="3">
         <v>1</v>
       </c>
       <c r="G378" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H378" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F379" s="3">
-        <v>1</v>
-      </c>
-      <c r="G379" s="3">
-        <v>0</v>
-      </c>
-      <c r="H379" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:C379" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:C360 B361:C378" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/pagopa-psp.xlsx
+++ b/data/pagopa-psp.xlsx
@@ -8352,11 +8352,7 @@
           <t>BLUCIT31</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="E218"/>
       <c r="F218" t="inlineStr">
         <is>
           <t>1</t>
